--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="918">
   <si>
     <t>target</t>
   </si>
@@ -2402,21 +2402,24 @@
     <t>counter</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
-  </si>
-  <si>
-    <t>${rowcount}</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -2435,9 +2438,6 @@
     <t>${numbers}</t>
   </si>
   <si>
-    <t>Increase the count</t>
-  </si>
-  <si>
     <t>verify Add button for Transfer note</t>
   </si>
   <si>
@@ -2459,6 +2459,9 @@
     <t>Create Transfer Note</t>
   </si>
   <si>
+    <t>Create Functionality</t>
+  </si>
+  <si>
     <t>verify the transfer note details heading</t>
   </si>
   <si>
@@ -2729,13 +2732,13 @@
     <t>verify Item values field</t>
   </si>
   <si>
-    <t>${select.Items}</t>
+    <t>${select.Items.First}</t>
   </si>
   <si>
     <t>verify quantity values field</t>
   </si>
   <si>
-    <t>${add.ItemQuantity}</t>
+    <t>${add.first.ItemQuantity}</t>
   </si>
   <si>
     <t>verify add or cancelbutton</t>
@@ -2747,7 +2750,7 @@
     <t>Select Items in Item field</t>
   </si>
   <si>
-    <t>test6273</t>
+    <t>Condensed milk</t>
   </si>
   <si>
     <t>Enter values in quantity field</t>
@@ -2756,6 +2759,15 @@
     <t>2</t>
   </si>
   <si>
+    <t>${select.Items.Second}</t>
+  </si>
+  <si>
+    <t>Clabber</t>
+  </si>
+  <si>
+    <t>${add.second.ItemQuantity}</t>
+  </si>
+  <si>
     <t>verify Add and cancel button in Add Item field</t>
   </si>
   <si>
@@ -2790,6 +2802,21 @@
   </si>
   <si>
     <t>${cancel.CreatedTransferNote}</t>
+  </si>
+  <si>
+    <t>Bcak Functionality</t>
+  </si>
+  <si>
+    <t>click on Back button to go back the dashboard page of Transfer note page</t>
+  </si>
+  <si>
+    <t>Reset Functionality</t>
+  </si>
+  <si>
+    <t>click on reset button</t>
+  </si>
+  <si>
+    <t>${click.Reset.Button}</t>
   </si>
 </sst>
 </file>
@@ -10105,10 +10132,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O211"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D66" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10584,17 +10611,17 @@
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>784</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>785</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -10609,17 +10636,17 @@
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="27" t="s">
+        <v>785</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>786</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>787</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -10637,11 +10664,11 @@
       <c r="C20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>785</v>
+      <c r="D20" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>787</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>788</v>
@@ -10666,7 +10693,7 @@
         <v>530</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>789</v>
@@ -10683,20 +10710,18 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="19"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>788</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>790</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>779</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
@@ -10788,9 +10813,11 @@
       <c r="O25" s="22"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="19" t="s">
+        <v>798</v>
+      </c>
       <c r="B26" s="30" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10799,10 +10826,10 @@
         <v>530</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -10817,7 +10844,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10826,10 +10853,10 @@
         <v>530</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -10844,7 +10871,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="30" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10853,7 +10880,7 @@
         <v>253</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
@@ -10869,7 +10896,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="30" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10878,7 +10905,7 @@
         <v>530</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>770</v>
@@ -10896,7 +10923,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="30" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10905,7 +10932,7 @@
         <v>253</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
@@ -10921,7 +10948,7 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="30" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
@@ -10930,10 +10957,10 @@
         <v>530</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
@@ -10948,7 +10975,7 @@
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
       <c r="B32" s="30" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10957,7 +10984,7 @@
         <v>253</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="27"/>
@@ -10973,7 +11000,7 @@
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
       <c r="B33" s="30" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
@@ -10982,10 +11009,10 @@
         <v>530</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -11000,7 +11027,7 @@
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
       <c r="B34" s="30" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
@@ -11009,7 +11036,7 @@
         <v>253</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="27"/>
@@ -11025,7 +11052,7 @@
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
       <c r="B35" s="30" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
@@ -11034,10 +11061,10 @@
         <v>530</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -11052,7 +11079,7 @@
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19"/>
       <c r="B36" s="30" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>30</v>
@@ -11061,7 +11088,7 @@
         <v>253</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="27"/>
@@ -11077,7 +11104,7 @@
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
       <c r="B37" s="30" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>30</v>
@@ -11086,10 +11113,10 @@
         <v>530</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -11104,7 +11131,7 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="30" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -11113,7 +11140,7 @@
         <v>253</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="27"/>
@@ -11129,7 +11156,7 @@
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="30" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>30</v>
@@ -11138,10 +11165,10 @@
         <v>707</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -11156,7 +11183,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="30" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>30</v>
@@ -11165,10 +11192,10 @@
         <v>707</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -11183,7 +11210,7 @@
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="30" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -11192,10 +11219,10 @@
         <v>707</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -11217,10 +11244,10 @@
         <v>656</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -11235,7 +11262,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="30" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11244,10 +11271,10 @@
         <v>707</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -11269,10 +11296,10 @@
         <v>656</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -11287,7 +11314,7 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="30" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
@@ -11296,10 +11323,10 @@
         <v>530</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
@@ -11314,7 +11341,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="30" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11323,10 +11350,10 @@
         <v>530</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -11341,7 +11368,7 @@
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="30" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -11350,7 +11377,7 @@
         <v>253</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="27"/>
@@ -11366,7 +11393,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="30" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
@@ -11375,10 +11402,10 @@
         <v>530</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
@@ -11393,7 +11420,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="30" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
@@ -11402,10 +11429,10 @@
         <v>530</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
@@ -11420,7 +11447,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="30" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>30</v>
@@ -11429,7 +11456,7 @@
         <v>253</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="27"/>
@@ -11445,7 +11472,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="30" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>30</v>
@@ -11454,10 +11481,10 @@
         <v>530</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
@@ -11472,7 +11499,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="30" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11481,7 +11508,7 @@
         <v>253</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="27"/>
@@ -11497,7 +11524,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="30" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
@@ -11506,10 +11533,10 @@
         <v>530</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -11524,7 +11551,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="30" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11533,7 +11560,7 @@
         <v>253</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="27"/>
@@ -11549,7 +11576,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="30" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
@@ -11558,10 +11585,10 @@
         <v>707</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -11576,7 +11603,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
       <c r="B56" s="20" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11585,10 +11612,10 @@
         <v>692</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -11610,10 +11637,10 @@
         <v>656</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11628,7 +11655,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>30</v>
@@ -11637,10 +11664,10 @@
         <v>707</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -11655,7 +11682,7 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="20" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>30</v>
@@ -11664,10 +11691,10 @@
         <v>707</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -11682,7 +11709,7 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
       <c r="B60" s="20" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>30</v>
@@ -11691,10 +11718,10 @@
         <v>707</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -11709,7 +11736,7 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>30</v>
@@ -11718,7 +11745,7 @@
         <v>253</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -11733,21 +11760,17 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
-        <v>879</v>
-      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>881</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
@@ -11761,7 +11784,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>30</v>
@@ -11770,10 +11793,10 @@
         <v>530</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -11788,18 +11811,20 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>253</v>
+        <v>530</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>886</v>
-      </c>
-      <c r="F64" s="27"/>
+        <v>884</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>885</v>
+      </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
@@ -11813,7 +11838,7 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>30</v>
@@ -11822,7 +11847,7 @@
         <v>253</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -11838,7 +11863,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11847,7 +11872,7 @@
         <v>253</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -11863,7 +11888,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>30</v>
@@ -11872,7 +11897,7 @@
         <v>253</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -11888,20 +11913,18 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>707</v>
+        <v>253</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>894</v>
-      </c>
+        <v>893</v>
+      </c>
+      <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
@@ -11914,18 +11937,20 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>836</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>837</v>
+      <c r="B69" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>895</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
@@ -11939,20 +11964,18 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="20" t="s">
-        <v>895</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>896</v>
+      <c r="B70" s="20"/>
+      <c r="C70" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>838</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -11967,18 +11990,20 @@
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="F71" s="27"/>
+        <v>891</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>897</v>
+      </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
@@ -11992,18 +12017,20 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="20" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E72" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="F72" s="27" t="s">
         <v>899</v>
       </c>
-      <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
@@ -12016,19 +12043,19 @@
     </row>
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
-      <c r="B73" s="20" t="s">
-        <v>900</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>901</v>
-      </c>
-      <c r="F73" s="27"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
@@ -12042,18 +12069,20 @@
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
       <c r="B74" s="20" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="F74" s="27"/>
+        <v>900</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>897</v>
+      </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
@@ -12067,16 +12096,16 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="20" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
@@ -12092,16 +12121,16 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="20" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -12117,16 +12146,16 @@
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
       <c r="B77" s="20" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
@@ -12141,10 +12170,18 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="B78" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>907</v>
+      </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -12158,10 +12195,18 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="B79" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>907</v>
+      </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -12175,10 +12220,18 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="B80" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>910</v>
+      </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
@@ -12192,10 +12245,18 @@
     </row>
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
+      <c r="B81" s="20" t="s">
+        <v>911</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>912</v>
+      </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
@@ -12208,11 +12269,21 @@
       <c r="O81" s="22"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+      <c r="A82" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>903</v>
+      </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
@@ -12224,12 +12295,20 @@
       <c r="N82" s="23"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="83" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+      <c r="B83" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>903</v>
+      </c>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
@@ -12242,11 +12321,21 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="A84" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="B84" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>792</v>
+      </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
@@ -12260,11 +12349,21 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
+      <c r="B85" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>832</v>
+      </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -12277,11 +12376,21 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
+      <c r="B86" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F86" s="36" t="s">
+        <v>834</v>
+      </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
@@ -12294,11 +12403,21 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
+      <c r="B87" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>836</v>
+      </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
@@ -12311,11 +12430,19 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -12328,11 +12455,21 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
+      <c r="B89" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>840</v>
+      </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
@@ -12345,11 +12482,19 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
@@ -12362,11 +12507,21 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
+      <c r="B91" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>868</v>
+      </c>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
@@ -12379,11 +12534,21 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+      <c r="B92" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>871</v>
+      </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
@@ -12397,10 +12562,18 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
+      <c r="C93" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
@@ -12413,11 +12586,21 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="B94" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>873</v>
+      </c>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
@@ -12430,11 +12613,21 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
+      <c r="B95" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>875</v>
+      </c>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
@@ -12447,11 +12640,21 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
+      <c r="B96" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>877</v>
+      </c>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
@@ -12464,10 +12667,18 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
+      <c r="B97" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>879</v>
+      </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
@@ -12482,9 +12693,15 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="C98" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>879</v>
+      </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -12498,11 +12715,21 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="B99" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>895</v>
+      </c>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
@@ -12516,10 +12743,18 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="C100" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
@@ -12532,11 +12767,21 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
+      <c r="B101" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>897</v>
+      </c>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
@@ -12549,11 +12794,21 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
+      <c r="B102" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>899</v>
+      </c>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
@@ -12567,10 +12822,18 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="C103" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>837</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>838</v>
+      </c>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
@@ -12583,11 +12846,21 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
+      <c r="B104" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>897</v>
+      </c>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
@@ -12600,10 +12873,18 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
+      <c r="B105" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>917</v>
+      </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
@@ -14196,227 +14477,6 @@
       <c r="N198" s="23"/>
       <c r="O198" s="22"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A199" s="19"/>
-      <c r="B199" s="20"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="27"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="48"/>
-      <c r="K199" s="22"/>
-      <c r="L199" s="23"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="23"/>
-      <c r="O199" s="22"/>
-    </row>
-    <row r="200" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A200" s="19"/>
-      <c r="B200" s="20"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="27"/>
-      <c r="J200" s="48"/>
-      <c r="K200" s="22"/>
-      <c r="L200" s="23"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="23"/>
-      <c r="O200" s="22"/>
-    </row>
-    <row r="201" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A201" s="19"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="27"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="22"/>
-      <c r="L201" s="23"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="23"/>
-      <c r="O201" s="22"/>
-    </row>
-    <row r="202" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A202" s="19"/>
-      <c r="B202" s="20"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="27"/>
-      <c r="J202" s="48"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="23"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="23"/>
-      <c r="O202" s="22"/>
-    </row>
-    <row r="203" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A203" s="19"/>
-      <c r="B203" s="20"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="27"/>
-      <c r="J203" s="48"/>
-      <c r="K203" s="22"/>
-      <c r="L203" s="23"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="23"/>
-      <c r="O203" s="22"/>
-    </row>
-    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A204" s="19"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="27"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="22"/>
-      <c r="L204" s="23"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="23"/>
-      <c r="O204" s="22"/>
-    </row>
-    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A205" s="19"/>
-      <c r="B205" s="20"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="27"/>
-      <c r="J205" s="48"/>
-      <c r="K205" s="22"/>
-      <c r="L205" s="23"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="23"/>
-      <c r="O205" s="22"/>
-    </row>
-    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A206" s="19"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="27"/>
-      <c r="J206" s="48"/>
-      <c r="K206" s="22"/>
-      <c r="L206" s="23"/>
-      <c r="M206" s="21"/>
-      <c r="N206" s="23"/>
-      <c r="O206" s="22"/>
-    </row>
-    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A207" s="19"/>
-      <c r="B207" s="20"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="27"/>
-      <c r="J207" s="48"/>
-      <c r="K207" s="22"/>
-      <c r="L207" s="23"/>
-      <c r="M207" s="21"/>
-      <c r="N207" s="23"/>
-      <c r="O207" s="22"/>
-    </row>
-    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A208" s="19"/>
-      <c r="B208" s="20"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="27"/>
-      <c r="J208" s="48"/>
-      <c r="K208" s="22"/>
-      <c r="L208" s="23"/>
-      <c r="M208" s="21"/>
-      <c r="N208" s="23"/>
-      <c r="O208" s="22"/>
-    </row>
-    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A209" s="19"/>
-      <c r="B209" s="20"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="27"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="22"/>
-      <c r="L209" s="23"/>
-      <c r="M209" s="21"/>
-      <c r="N209" s="23"/>
-      <c r="O209" s="22"/>
-    </row>
-    <row r="210" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A210" s="19"/>
-      <c r="B210" s="20"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="22"/>
-      <c r="L210" s="23"/>
-      <c r="M210" s="21"/>
-      <c r="N210" s="23"/>
-      <c r="O210" s="22"/>
-    </row>
-    <row r="211" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A211" s="19"/>
-      <c r="B211" s="20"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
-      <c r="I211" s="27"/>
-      <c r="J211" s="48"/>
-      <c r="K211" s="22"/>
-      <c r="L211" s="23"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="23"/>
-      <c r="O211" s="22"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -14424,18 +14484,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N112:N211">
+  <conditionalFormatting sqref="N99:N198">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N112,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N112,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N112,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N111">
+  <conditionalFormatting sqref="N1 N3:N98">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14447,10 +14507,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C39 C42 C43 C44 C49 C56 C57 C69 C7:C8 C10:C12 C16:C17 C25:C28 C29:C38 C40:C41 C45:C48 C50:C55 C58:C68 C70:C211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C39 C42 C43 C44 C49 C56 C57 C62 C69 C70 C71 C72 C73 C74 C82 C83 C84 C85 C88 C89 C90 C91 C92 C93 C98 C99 C100 C101 C102 C103 C104 C7:C8 C10:C12 C16:C17 C25:C28 C29:C38 C40:C41 C45:C48 C50:C55 C58:C61 C63:C68 C75:C81 C86:C87 C94:C97 C105:C198">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D39 D42 D43 D44 D49 D56 D57 D69 D7:D8 D10:D12 D16:D17 D25:D28 D29:D38 D40:D41 D45:D48 D50:D55 D58:D68 D70:D211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D39 D42 D43 D44 D49 D56 D57 D62 D69 D70 D71 D72 D73 D74 D82 D83 D84 D85 D88 D89 D90 D91 D92 D93 D98 D99 D100 D101 D102 D103 D104 D7:D8 D10:D12 D16:D17 D25:D28 D29:D38 D40:D41 D45:D48 D50:D55 D58:D61 D63:D68 D75:D81 D86:D87 D94:D97 D105:D198">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="879">
   <si>
     <t>target</t>
   </si>
@@ -2342,61 +2342,265 @@
     <t>${org.workflow}</t>
   </si>
   <si>
+    <t>click on Transaction in Workflow</t>
+  </si>
+  <si>
+    <t>${org.transactions}</t>
+  </si>
+  <si>
+    <t>click on Transfer Note in Transactions</t>
+  </si>
+  <si>
+    <t>${click.TransferNote}</t>
+  </si>
+  <si>
+    <t>verify transfer note button</t>
+  </si>
+  <si>
+    <t>${transferNote.button}</t>
+  </si>
+  <si>
+    <t>Redirect to Create Transfer note page</t>
+  </si>
+  <si>
+    <t>click on Add Transfer Note button</t>
+  </si>
+  <si>
+    <t>${add.TransferNoteButton}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Create Transfer note Heading </t>
+  </si>
+  <si>
+    <t>${cTransferNote.Heading}</t>
+  </si>
+  <si>
+    <t>Add Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on add item to add new Items selection fields </t>
+  </si>
+  <si>
+    <t>${ctn.addItem}</t>
+  </si>
+  <si>
     <t>3000</t>
   </si>
   <si>
-    <t>click on Transaction in Workflow</t>
-  </si>
-  <si>
-    <t>${org.transactions}</t>
-  </si>
-  <si>
-    <t>click on Transfer Note in Transactions</t>
-  </si>
-  <si>
-    <t>${click.TransferNote}</t>
-  </si>
-  <si>
-    <t>verify transfer note button</t>
-  </si>
-  <si>
-    <t>${transferNote.button}</t>
-  </si>
-  <si>
-    <t>verify Kebab menu Icon</t>
-  </si>
-  <si>
-    <t>${kebabmenu.Icon}</t>
-  </si>
-  <si>
-    <t>verify Date field in this Transfer note page</t>
-  </si>
-  <si>
-    <t>${table.dateField}</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>verify Number field is Transfer note page</t>
-  </si>
-  <si>
-    <t>${table.numberField}</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save the rowcount </t>
+    <t>select Dispatch from address</t>
+  </si>
+  <si>
+    <t>${tn.dispatch.From.values}</t>
+  </si>
+  <si>
+    <t>Primary Godown (Primary Godown's address)</t>
+  </si>
+  <si>
+    <t>select Dispatch To address</t>
+  </si>
+  <si>
+    <t>${tn.dispatch.to.values}</t>
+  </si>
+  <si>
+    <t>Test_Godown (XYZ, WhiteField, Karnataka,560066)</t>
+  </si>
+  <si>
+    <t>Select Items in Item field</t>
+  </si>
+  <si>
+    <t>${select.Items.First}</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>{DOWN}{ENTER}</t>
+  </si>
+  <si>
+    <t>Enter values in quantity field</t>
+  </si>
+  <si>
+    <t>${add.first.ItemQuantity}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>click again add item button to add Items section</t>
+  </si>
+  <si>
+    <t>delete the selected Items field</t>
+  </si>
+  <si>
+    <t>${ai.CancelorAddbutton}</t>
+  </si>
+  <si>
+    <t>Refresh the page</t>
+  </si>
+  <si>
+    <t>Back Functionality</t>
+  </si>
+  <si>
+    <t>click on back button to go back to the dashboard page from create Transfer note page</t>
+  </si>
+  <si>
+    <t>${backTransferNote.Button}</t>
+  </si>
+  <si>
+    <t>click again Add button in Transfer Note</t>
+  </si>
+  <si>
+    <t>Reset Functionality</t>
+  </si>
+  <si>
+    <t>Enter the values in number of package</t>
+  </si>
+  <si>
+    <t>${td.noofpackage.values}</t>
+  </si>
+  <si>
+    <t>${No.ofpackage}</t>
+  </si>
+  <si>
+    <t>select the transport by option</t>
+  </si>
+  <si>
+    <t>${td.transportby.values}</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter date of supply date </t>
+  </si>
+  <si>
+    <t>${td.dateofsupply.values}</t>
+  </si>
+  <si>
+    <t>${SupplyDate}</t>
+  </si>
+  <si>
+    <t>enter receipt date</t>
+  </si>
+  <si>
+    <t>${td.receipt.date.values}</t>
+  </si>
+  <si>
+    <t>${receiptDate}</t>
+  </si>
+  <si>
+    <t>enter grace period value</t>
+  </si>
+  <si>
+    <t>${td.graceperiod.values}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>click on reset button</t>
+  </si>
+  <si>
+    <t>${click.Reset.Button}</t>
+  </si>
+  <si>
+    <t>Transfer note Details</t>
+  </si>
+  <si>
+    <t>Transport Details</t>
+  </si>
+  <si>
+    <t>click on Create transfer button</t>
+  </si>
+  <si>
+    <t>${create.TransferNote.Button}</t>
+  </si>
+  <si>
+    <t>click on cancel button in Pop up Transfer Note Message</t>
+  </si>
+  <si>
+    <t>${cancel.Transfer.Creation}</t>
+  </si>
+  <si>
+    <t>Again click on Create transfer button</t>
+  </si>
+  <si>
+    <t>click ok button in Pop Up</t>
+  </si>
+  <si>
+    <t>${Ok.CreateTransfer}</t>
+  </si>
+  <si>
+    <t>Save the text which are present in POP up Message</t>
+  </si>
+  <si>
+    <t>varname</t>
+  </si>
+  <si>
+    <t>${xpath.PopUp.Message}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the expected value </t>
+  </si>
+  <si>
+    <t>expectedvalue</t>
+  </si>
+  <si>
+    <t>Create Transfer Note Successfull!</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values.</t>
+  </si>
+  <si>
+    <t>${expectedvalue}</t>
+  </si>
+  <si>
+    <t>${varname}</t>
+  </si>
+  <si>
+    <t>Redirect to the Transfer note Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the created Transfer note Title </t>
+  </si>
+  <si>
+    <t>${TransferNote.title}</t>
+  </si>
+  <si>
+    <t>Save the Transfer note number in variable</t>
+  </si>
+  <si>
+    <t>transfernoteNo</t>
+  </si>
+  <si>
+    <t>${TransferNoteForm.No}</t>
+  </si>
+  <si>
+    <t>closing the created Transfer note Form</t>
+  </si>
+  <si>
+    <t>${click.created.TransferNote}</t>
+  </si>
+  <si>
+    <t>Redirect to Transfer note list page</t>
+  </si>
+  <si>
+    <t>click on go back</t>
+  </si>
+  <si>
+    <t>Saving the table row count in variable</t>
   </si>
   <si>
     <t>rowcount</t>
   </si>
   <si>
-    <t>${tn.table.row.xpath}</t>
-  </si>
-  <si>
-    <t>Save counter values</t>
+    <t>${tn.table.row.no.xpath}</t>
+  </si>
+  <si>
+    <t>Store the counter value as 0</t>
   </si>
   <si>
     <t>counter</t>
@@ -2417,406 +2621,85 @@
     <t>${rowcount}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>${tn.table.row.xpath}[${counter}]${table.dateField.values}</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>${tn.table.row.xpath}[${counter}]${table.numberField.values}</t>
-  </si>
-  <si>
-    <t>${date}</t>
-  </si>
-  <si>
-    <t>${numbers}</t>
-  </si>
-  <si>
-    <t>verify Add button for Transfer note</t>
-  </si>
-  <si>
-    <t>${add.TransferNoteButton}</t>
-  </si>
-  <si>
-    <t>click on Add Transfer Note button</t>
-  </si>
-  <si>
-    <t>Navigate to Create Transfer Note page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify the Heading of create Transfer note </t>
-  </si>
-  <si>
-    <t>${cTransferNote.Heading}</t>
-  </si>
-  <si>
-    <t>Create Transfer Note</t>
-  </si>
-  <si>
-    <t>Create Functionality</t>
-  </si>
-  <si>
-    <t>verify the transfer note details heading</t>
-  </si>
-  <si>
-    <t>${tn.Details}</t>
-  </si>
-  <si>
-    <t>Transfer Note Details</t>
-  </si>
-  <si>
-    <t>verify the transfer note number key</t>
-  </si>
-  <si>
-    <t>${tn.Number.key}</t>
-  </si>
-  <si>
-    <t>Transfer Note No.</t>
-  </si>
-  <si>
-    <t>verify Transfer note No Value field</t>
-  </si>
-  <si>
-    <t>${tn.number.values}</t>
-  </si>
-  <si>
-    <t>verify Date key field</t>
-  </si>
-  <si>
-    <t>${Date.key}</t>
-  </si>
-  <si>
-    <t>verify the date values field</t>
-  </si>
-  <si>
-    <t>${tn.date.values}</t>
-  </si>
-  <si>
-    <t>verify dispatch from field</t>
-  </si>
-  <si>
-    <t>${DispatchFrom.Key}</t>
-  </si>
-  <si>
-    <t>Dispatch From</t>
-  </si>
-  <si>
-    <t>verify dispatch from value field</t>
-  </si>
-  <si>
-    <t>${tn.dispatch.From.values}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify the Dispatch to </t>
-  </si>
-  <si>
-    <t>${DispatchTo.Key}</t>
-  </si>
-  <si>
-    <t>Dispatch To</t>
-  </si>
-  <si>
-    <t>verify the Dispatch to value field</t>
-  </si>
-  <si>
-    <t>${tn.dispatch.to.values}</t>
-  </si>
-  <si>
-    <t>verify the Issuer field</t>
-  </si>
-  <si>
-    <t>${issuer.key}</t>
-  </si>
-  <si>
-    <t>Issuer</t>
-  </si>
-  <si>
-    <t>verify the Issuer Value field</t>
-  </si>
-  <si>
-    <t>${tn.issuer.values}</t>
-  </si>
-  <si>
-    <t>verify the role field</t>
-  </si>
-  <si>
-    <t>${role.key}</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>verify role value field</t>
-  </si>
-  <si>
-    <t>${tn.role.values}</t>
-  </si>
-  <si>
-    <t>Enter Transfer note number</t>
-  </si>
-  <si>
-    <t>[NUMBER(${num})=&gt;randomDigits(1)]/TN-[NUMBER(${num})=&gt;randomDigits(2)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the date </t>
-  </si>
-  <si>
-    <t>${Enter.date.values}</t>
-  </si>
-  <si>
-    <t>select Dispatch from address</t>
-  </si>
-  <si>
-    <t>Primary Godown</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{DOWN}{ENTER}</t>
-  </si>
-  <si>
-    <t>select Dispatch To address</t>
-  </si>
-  <si>
-    <t>sample24</t>
-  </si>
-  <si>
-    <t>verify the transport details heading</t>
-  </si>
-  <si>
-    <t>${transportDetails.heading}</t>
-  </si>
-  <si>
-    <t>Transport Details</t>
-  </si>
-  <si>
-    <t>verify the number of package key name</t>
-  </si>
-  <si>
-    <t>${td.noofpackage.key}</t>
-  </si>
-  <si>
-    <t>No. of packages</t>
-  </si>
-  <si>
-    <t>verify the number of package values field</t>
-  </si>
-  <si>
-    <t>${td.noofpackage.values}</t>
-  </si>
-  <si>
-    <t>verify the Transport by key name</t>
-  </si>
-  <si>
-    <t>${td.transportby.key}</t>
-  </si>
-  <si>
-    <t>Transport By</t>
-  </si>
-  <si>
-    <t>verify date of supply key name</t>
-  </si>
-  <si>
-    <t>${td.dateofsupply.key}</t>
-  </si>
-  <si>
-    <t>Date of Supply</t>
-  </si>
-  <si>
-    <t>verify date of supply value field</t>
-  </si>
-  <si>
-    <t>${td.dateofsupply.values}</t>
-  </si>
-  <si>
-    <t>verify receipt date key name</t>
-  </si>
-  <si>
-    <t>${td.receipt.date.key}</t>
-  </si>
-  <si>
-    <t>Receipt Date</t>
-  </si>
-  <si>
-    <t>verify receipt date value field</t>
-  </si>
-  <si>
-    <t>${td.receipt.date.values}</t>
-  </si>
-  <si>
-    <t>verify grace period key name</t>
-  </si>
-  <si>
-    <t>${td.graceperiod.key}</t>
-  </si>
-  <si>
-    <t>Grace Period</t>
-  </si>
-  <si>
-    <t>verify grace period value field</t>
-  </si>
-  <si>
-    <t>${td.graceperiod.values}</t>
-  </si>
-  <si>
-    <t>Enter the values in number of package</t>
-  </si>
-  <si>
-    <t>${No.ofpackage}</t>
-  </si>
-  <si>
-    <t>select the transport by option</t>
-  </si>
-  <si>
-    <t>${td.transportby.values}</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter date of supply date </t>
-  </si>
-  <si>
-    <t>${SupplyDate}</t>
-  </si>
-  <si>
-    <t>enter receipt date</t>
-  </si>
-  <si>
-    <t>${receiptDate}</t>
-  </si>
-  <si>
-    <t>enter grace period value</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>verify Add Item button</t>
-  </si>
-  <si>
-    <t>${ctn.addItem}</t>
-  </si>
-  <si>
-    <t>verify Item field in Item Table</t>
-  </si>
-  <si>
-    <t>${ai.Item}</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>verify Quantity field in Items Table</t>
-  </si>
-  <si>
-    <t>${ai.Qty}</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>verify add or cancel button in Item table</t>
-  </si>
-  <si>
-    <t>${ai.AddorCancelIcon}</t>
-  </si>
-  <si>
-    <t>verify Item values field</t>
-  </si>
-  <si>
-    <t>${select.Items.First}</t>
-  </si>
-  <si>
-    <t>verify quantity values field</t>
-  </si>
-  <si>
-    <t>${add.first.ItemQuantity}</t>
-  </si>
-  <si>
-    <t>verify add or cancelbutton</t>
-  </si>
-  <si>
-    <t>${ai.CancelorAddbutton}</t>
-  </si>
-  <si>
-    <t>Select Items in Item field</t>
-  </si>
-  <si>
-    <t>Condensed milk</t>
-  </si>
-  <si>
-    <t>Enter values in quantity field</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>${select.Items.Second}</t>
-  </si>
-  <si>
-    <t>Clabber</t>
-  </si>
-  <si>
-    <t>${add.second.ItemQuantity}</t>
-  </si>
-  <si>
-    <t>verify Add and cancel button in Add Item field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify Back button </t>
-  </si>
-  <si>
-    <t>${backTransferNote.Button}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify Reset button </t>
-  </si>
-  <si>
-    <t>${reset.TransferNote.Button}</t>
-  </si>
-  <si>
-    <t>verify create Transfer button</t>
-  </si>
-  <si>
-    <t>${create.TransferNote.Button}</t>
-  </si>
-  <si>
-    <t>click on Create transfer button</t>
-  </si>
-  <si>
-    <t>click ok button in Pop Up</t>
-  </si>
-  <si>
-    <t>${Ok.CreateTransfer}</t>
-  </si>
-  <si>
-    <t>click on cancel button in Created Transfer Note</t>
-  </si>
-  <si>
-    <t>${cancel.CreatedTransferNote}</t>
-  </si>
-  <si>
-    <t>Bcak Functionality</t>
-  </si>
-  <si>
-    <t>click on Back button to go back the dashboard page of Transfer note page</t>
-  </si>
-  <si>
-    <t>Reset Functionality</t>
-  </si>
-  <si>
-    <t>click on reset button</t>
-  </si>
-  <si>
-    <t>${click.Reset.Button}</t>
+    <t>Increase the Counter value as 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the created transfer note value </t>
+  </si>
+  <si>
+    <t>transferNo</t>
+  </si>
+  <si>
+    <t>(${tn.table.row.no.xpath})[${counter}]</t>
+  </si>
+  <si>
+    <t>Compare Expected and Actual values</t>
+  </si>
+  <si>
+    <t>${transfernoteNo}</t>
+  </si>
+  <si>
+    <t>${transferNo}</t>
+  </si>
+  <si>
+    <t>click on that created transfer note</t>
+  </si>
+  <si>
+    <t>Using End loop If, the Actal and Expected values are matching then it will stop the loop</t>
+  </si>
+  <si>
+    <t>EndLoopIf(${transfernoteNo} = ${transferNo})</t>
+  </si>
+  <si>
+    <t>tndetailsno</t>
+  </si>
+  <si>
+    <t>${transferNote.Details.No}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare Expected and Actual values in Transfer note </t>
+  </si>
+  <si>
+    <t>${tndetailsno}</t>
+  </si>
+  <si>
+    <t>Enter Actual receipt date</t>
+  </si>
+  <si>
+    <t>${tn.actual.receiptDate}</t>
+  </si>
+  <si>
+    <t>Click on Approve Button</t>
+  </si>
+  <si>
+    <t>${tn.approve.button}</t>
+  </si>
+  <si>
+    <t>approvetransfernote</t>
+  </si>
+  <si>
+    <t>${tn.approve.popup.message}</t>
+  </si>
+  <si>
+    <t>valueExpected</t>
+  </si>
+  <si>
+    <t>Transfer Note ${tndetailsno} was successfully approved!</t>
+  </si>
+  <si>
+    <t>${valueExpected}</t>
+  </si>
+  <si>
+    <t>${approvetransfernote}</t>
+  </si>
+  <si>
+    <t>Print Functionality</t>
+  </si>
+  <si>
+    <t>Click on print Icon</t>
+  </si>
+  <si>
+    <t>${tn.print.Icon}</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2712,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2887,6 +2770,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
@@ -2904,13 +2797,22 @@
       <b/>
       <strike/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3418,135 +3320,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3648,6 +3550,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3656,19 +3574,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3693,7 +3608,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3701,20 +3616,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3723,42 +3654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6799,10 +6694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O188"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6846,14 +6741,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="38"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6867,12 +6762,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6884,7 +6779,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="41"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6919,10 +6814,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6937,84 +6832,84 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="56" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="57" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="45"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="45"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
@@ -7026,7 +6921,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -7043,7 +6938,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="48"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -7060,7 +6955,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="48"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -7077,7 +6972,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="48"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7094,7 +6989,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="48"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7111,7 +7006,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="48"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7128,7 +7023,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="48"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7137,7 +7032,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="60"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="26"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
@@ -7145,7 +7040,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7162,7 +7057,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="48"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7179,7 +7074,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="48"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7196,7 +7091,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="48"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7213,7 +7108,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="48"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7230,7 +7125,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7247,7 +7142,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7264,7 +7159,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="48"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7281,7 +7176,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="48"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7298,7 +7193,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="48"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7315,7 +7210,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="48"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7332,7 +7227,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="48"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7349,7 +7244,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="48"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7366,7 +7261,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7383,7 +7278,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="48"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7400,7 +7295,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="48"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7417,7 +7312,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7434,7 +7329,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="48"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7451,7 +7346,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="48"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7468,7 +7363,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="48"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7485,7 +7380,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="48"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7502,7 +7397,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="48"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7519,7 +7414,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="48"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7536,7 +7431,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="48"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7553,7 +7448,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="48"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7570,7 +7465,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="48"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7587,7 +7482,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="48"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7604,7 +7499,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="48"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7621,7 +7516,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="48"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7638,7 +7533,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="48"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7655,7 +7550,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="48"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7672,7 +7567,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="48"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7689,7 +7584,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7706,7 +7601,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="48"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7723,7 +7618,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="48"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7740,7 +7635,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="48"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7757,7 +7652,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="48"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7774,7 +7669,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7791,7 +7686,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="48"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7808,7 +7703,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="48"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7825,7 +7720,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="48"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7842,7 +7737,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="48"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7859,7 +7754,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="48"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7876,7 +7771,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="48"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7893,7 +7788,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="48"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7910,7 +7805,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="48"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7927,7 +7822,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="48"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7944,7 +7839,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7961,7 +7856,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="48"/>
+      <c r="J64" s="51"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7978,7 +7873,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="48"/>
+      <c r="J65" s="51"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7995,7 +7890,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="48"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -8012,7 +7907,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="48"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -8029,7 +7924,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="48"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -8046,7 +7941,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="48"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -8063,7 +7958,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="48"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -8080,7 +7975,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="48"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8097,7 +7992,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="48"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8114,7 +8009,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="48"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8131,7 +8026,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="48"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8148,7 +8043,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="48"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8165,7 +8060,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="48"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8182,7 +8077,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="48"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8199,7 +8094,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="48"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8216,7 +8111,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="48"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8233,7 +8128,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="48"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8250,7 +8145,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="48"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8267,7 +8162,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="48"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8284,7 +8179,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="48"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8301,7 +8196,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="48"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8318,7 +8213,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="48"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8335,7 +8230,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="48"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8352,7 +8247,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="48"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8369,7 +8264,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="48"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8386,7 +8281,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="48"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8403,7 +8298,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="48"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8420,7 +8315,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="48"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8437,7 +8332,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="48"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8454,7 +8349,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="48"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8471,7 +8366,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="48"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8488,7 +8383,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="48"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8505,7 +8400,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="48"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8522,7 +8417,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="48"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8539,7 +8434,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="48"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8556,7 +8451,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="48"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8573,7 +8468,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="48"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8590,7 +8485,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="48"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8607,7 +8502,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="48"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8624,7 +8519,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="48"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8641,7 +8536,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="48"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8658,7 +8553,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="48"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8675,7 +8570,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="48"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8692,7 +8587,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="48"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8709,7 +8604,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="48"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8726,7 +8621,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="48"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8743,7 +8638,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="48"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8760,7 +8655,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="48"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8777,7 +8672,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="48"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8794,7 +8689,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="48"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8811,7 +8706,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="48"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8828,7 +8723,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="48"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8845,7 +8740,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="48"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8862,7 +8757,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="48"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8879,7 +8774,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="48"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8896,7 +8791,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="48"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8913,7 +8808,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="48"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8930,7 +8825,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="48"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8947,7 +8842,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="48"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8964,7 +8859,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="48"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8981,7 +8876,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="48"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8998,7 +8893,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="48"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -9015,7 +8910,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="48"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -9032,7 +8927,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="48"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -9049,7 +8944,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="48"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -9066,7 +8961,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="48"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9083,7 +8978,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="48"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9100,7 +8995,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="48"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9117,7 +9012,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="48"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9134,7 +9029,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="48"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9151,7 +9046,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="48"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9168,7 +9063,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="48"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9185,7 +9080,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="48"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9202,7 +9097,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="48"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9219,7 +9114,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="48"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9236,7 +9131,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9253,7 +9148,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9270,7 +9165,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="48"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9287,7 +9182,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="48"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9304,7 +9199,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9321,7 +9216,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9338,7 +9233,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="48"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9355,7 +9250,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="48"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9372,7 +9267,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9389,7 +9284,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9406,7 +9301,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="48"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9423,7 +9318,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="48"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9440,7 +9335,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="48"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9457,7 +9352,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="48"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9474,7 +9369,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="48"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9491,7 +9386,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="48"/>
+      <c r="J154" s="51"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9508,7 +9403,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="48"/>
+      <c r="J155" s="51"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9525,7 +9420,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="48"/>
+      <c r="J156" s="51"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9542,7 +9437,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="48"/>
+      <c r="J157" s="51"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9559,7 +9454,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="48"/>
+      <c r="J158" s="51"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9576,7 +9471,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="48"/>
+      <c r="J159" s="51"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9593,7 +9488,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="48"/>
+      <c r="J160" s="51"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9610,7 +9505,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="48"/>
+      <c r="J161" s="51"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9627,7 +9522,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="48"/>
+      <c r="J162" s="51"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9644,7 +9539,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="48"/>
+      <c r="J163" s="51"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9661,7 +9556,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="48"/>
+      <c r="J164" s="51"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9678,7 +9573,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="48"/>
+      <c r="J165" s="51"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9695,7 +9590,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="48"/>
+      <c r="J166" s="51"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9712,7 +9607,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="48"/>
+      <c r="J167" s="51"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9729,352 +9624,12 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="48"/>
+      <c r="J168" s="51"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
       <c r="N168" s="23"/>
       <c r="O168" s="22"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="22"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="23"/>
-      <c r="O169" s="22"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="22"/>
-      <c r="L170" s="23"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="23"/>
-      <c r="O170" s="22"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="22"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="23"/>
-      <c r="O171" s="22"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="22"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="23"/>
-      <c r="O172" s="22"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="48"/>
-      <c r="K173" s="22"/>
-      <c r="L173" s="23"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="23"/>
-      <c r="O173" s="22"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="48"/>
-      <c r="K174" s="22"/>
-      <c r="L174" s="23"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="23"/>
-      <c r="O174" s="22"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="48"/>
-      <c r="K175" s="22"/>
-      <c r="L175" s="23"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="23"/>
-      <c r="O175" s="22"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="22"/>
-      <c r="L176" s="23"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="23"/>
-      <c r="O176" s="22"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="22"/>
-      <c r="L177" s="23"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="23"/>
-      <c r="O177" s="22"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="48"/>
-      <c r="K178" s="22"/>
-      <c r="L178" s="23"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="23"/>
-      <c r="O178" s="22"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="48"/>
-      <c r="K179" s="22"/>
-      <c r="L179" s="23"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="23"/>
-      <c r="O179" s="22"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="48"/>
-      <c r="K180" s="22"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="23"/>
-      <c r="O180" s="22"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="22"/>
-      <c r="L181" s="23"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="23"/>
-      <c r="O181" s="22"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="48"/>
-      <c r="K182" s="22"/>
-      <c r="L182" s="23"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="22"/>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="48"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="23"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="23"/>
-      <c r="O183" s="22"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="22"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10083,7 +9638,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5:N6">
+  <conditionalFormatting sqref="N5">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -10094,18 +9649,18 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89:N188">
+  <conditionalFormatting sqref="N69:N168">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N7:N88">
+  <conditionalFormatting sqref="N1 N3:N4 N6:N68">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -10117,10 +9672,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C7 C8 C9:C188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6:C168">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D7 D8 D9:D188">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6:D168">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10132,10 +9687,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O198"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10148,7 +9703,7 @@
     <col min="6" max="6" width="75.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
     <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="43.6583333333333" style="8" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
     <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="11" customWidth="1"/>
@@ -10179,14 +9734,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="38"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -10200,12 +9755,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -10217,7 +9772,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="41"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -10252,10 +9807,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="45" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="43"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -10291,12 +9846,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -10316,12 +9871,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="45"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -10332,18 +9887,16 @@
         <v>30</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>576</v>
+        <v>363</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>759</v>
-      </c>
+      <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="48"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -10353,7 +9906,7 @@
     <row r="8" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>30</v>
@@ -10362,13 +9915,13 @@
         <v>363</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="48"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -10378,7 +9931,7 @@
     <row r="9" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>30</v>
@@ -10387,13 +9940,13 @@
         <v>363</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -10403,7 +9956,7 @@
     <row r="10" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="19"/>
       <c r="B10" s="30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>30</v>
@@ -10412,13 +9965,13 @@
         <v>253</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="48"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10426,7 +9979,9 @@
       <c r="O10" s="22"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>765</v>
+      </c>
       <c r="B11" s="30" t="s">
         <v>766</v>
       </c>
@@ -10434,7 +9989,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>767</v>
@@ -10443,7 +9998,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="48"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10459,18 +10014,16 @@
         <v>30</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>770</v>
-      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="48"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10478,26 +10031,28 @@
       <c r="O12" s="22"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>771</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>773</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="48"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10506,25 +10061,25 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="34" t="s">
         <v>776</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="48"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10533,25 +10088,25 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>777</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>778</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="34" t="s">
         <v>779</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="48"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10560,23 +10115,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="20" t="s">
         <v>780</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>781</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>782</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="48"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10585,23 +10142,23 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>783</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>784</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="48"/>
+      <c r="J17" s="51"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10610,23 +10167,25 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>784</v>
+      <c r="B18" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>787</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="48"/>
+      <c r="J18" s="51"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10635,23 +10194,23 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="20" t="s">
+        <v>788</v>
+      </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>493</v>
+        <v>363</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>786</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="48"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10660,23 +10219,23 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="19"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>787</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>788</v>
-      </c>
+      <c r="D20" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>790</v>
+      </c>
+      <c r="F20" s="34"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="48"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10685,48 +10244,50 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="31" t="s">
+        <v>791</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>786</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>789</v>
-      </c>
+      <c r="D21" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="48"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
       <c r="N21" s="23"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+    <row r="22" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
+      <c r="A22" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>788</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>790</v>
+      <c r="D22" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="F22" s="28">
+        <v>5000</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="48"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10736,7 +10297,7 @@
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="30" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10745,13 +10306,13 @@
         <v>253</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="48"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10761,7 +10322,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10770,13 +10331,13 @@
         <v>363</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="48"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10785,27 +10346,27 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="C25" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>797</v>
+      <c r="D25" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>776</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="48"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10813,28 +10374,26 @@
       <c r="O25" s="22"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>801</v>
+      <c r="D26" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>779</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="48"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10844,24 +10403,24 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="48"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10870,23 +10429,25 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="30" t="s">
-        <v>805</v>
+      <c r="B28" s="20" t="s">
+        <v>800</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>253</v>
+        <v>692</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="F28" s="28"/>
+        <v>801</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>802</v>
+      </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="48"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10895,25 +10456,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="30" t="s">
-        <v>807</v>
+      <c r="B29" s="20" t="s">
+        <v>803</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>770</v>
+        <v>804</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>805</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="48"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10922,23 +10483,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
-      <c r="B30" s="30" t="s">
-        <v>809</v>
+      <c r="B30" s="20" t="s">
+        <v>806</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F30" s="28"/>
+        <v>807</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>808</v>
+      </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="48"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10947,25 +10510,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="30" t="s">
-        <v>811</v>
+      <c r="B31" s="20" t="s">
+        <v>809</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>813</v>
+        <v>810</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>811</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="48"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10974,23 +10537,25 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="30" t="s">
-        <v>814</v>
+      <c r="B32" s="20" t="s">
+        <v>780</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F32" s="28"/>
+        <v>781</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>782</v>
+      </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10999,25 +10564,23 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>818</v>
+      <c r="B33" s="20"/>
+      <c r="C33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>784</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="48"/>
+      <c r="J33" s="51"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -11026,23 +10589,25 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="30" t="s">
-        <v>819</v>
+      <c r="B34" s="20" t="s">
+        <v>785</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F34" s="28"/>
+        <v>786</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>787</v>
+      </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="48"/>
+      <c r="J34" s="51"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -11051,25 +10616,25 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="19"/>
-      <c r="B35" s="30" t="s">
-        <v>821</v>
+      <c r="B35" s="20" t="s">
+        <v>812</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>823</v>
+        <v>813</v>
+      </c>
+      <c r="F35" s="28">
+        <v>3000</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="48"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -11077,24 +10642,28 @@
       <c r="O35" s="22"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="A36" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="C36" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="F36" s="28"/>
+      <c r="D36" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>776</v>
+      </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="48"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -11103,25 +10672,25 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="19"/>
-      <c r="B37" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C37" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>828</v>
+      <c r="D37" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>779</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="48"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -11129,24 +10698,28 @@
       <c r="O37" s="22"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>815</v>
+      </c>
       <c r="B38" s="30" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>830</v>
-      </c>
-      <c r="F38" s="28"/>
+        <v>798</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>799</v>
+      </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="48"/>
+      <c r="J38" s="51"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -11155,25 +10728,25 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
-      <c r="B39" s="30" t="s">
-        <v>831</v>
+      <c r="B39" s="20" t="s">
+        <v>800</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>832</v>
+        <v>801</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>802</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="48"/>
+      <c r="J39" s="51"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -11182,8 +10755,8 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="30" t="s">
-        <v>833</v>
+      <c r="B40" s="20" t="s">
+        <v>803</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>30</v>
@@ -11192,15 +10765,15 @@
         <v>707</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>834</v>
+        <v>804</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>805</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="48"/>
+      <c r="J40" s="51"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -11209,8 +10782,8 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
-      <c r="B41" s="30" t="s">
-        <v>835</v>
+      <c r="B41" s="20" t="s">
+        <v>806</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -11219,15 +10792,15 @@
         <v>707</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>836</v>
+        <v>807</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>808</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="48"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -11236,23 +10809,25 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>838</v>
+      <c r="B42" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>811</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="48"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -11261,8 +10836,8 @@
     </row>
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
-      <c r="B43" s="30" t="s">
-        <v>839</v>
+      <c r="B43" s="20" t="s">
+        <v>780</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11271,15 +10846,15 @@
         <v>707</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>840</v>
+        <v>781</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>782</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="48"/>
+      <c r="J43" s="51"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -11288,23 +10863,23 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>838</v>
+      <c r="E44" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>784</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="48"/>
+      <c r="J44" s="51"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -11313,25 +10888,25 @@
     </row>
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
-      <c r="B45" s="30" t="s">
-        <v>841</v>
+      <c r="B45" s="20" t="s">
+        <v>785</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>530</v>
+        <v>707</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>843</v>
+        <v>786</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>787</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="48"/>
+      <c r="J45" s="51"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -11340,50 +10915,48 @@
     </row>
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
-      <c r="B46" s="30" t="s">
-        <v>844</v>
+      <c r="B46" s="20" t="s">
+        <v>816</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>845</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>846</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="48"/>
+      <c r="J46" s="51"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="30" t="s">
-        <v>847</v>
+      <c r="B47" s="20" t="s">
+        <v>818</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F47" s="28"/>
+        <v>819</v>
+      </c>
+      <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="48"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -11392,25 +10965,23 @@
     </row>
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
-      <c r="B48" s="30" t="s">
-        <v>849</v>
+      <c r="B48" s="20" t="s">
+        <v>820</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>850</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>851</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="48"/>
+      <c r="J48" s="51"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11419,25 +10990,23 @@
     </row>
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
-      <c r="B49" s="30" t="s">
-        <v>852</v>
+      <c r="B49" s="20" t="s">
+        <v>821</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>853</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>854</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="48"/>
+      <c r="J49" s="51"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11446,23 +11015,25 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="C50" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="F50" s="28"/>
+      <c r="D50" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>825</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="48"/>
+      <c r="J50" s="51"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11471,25 +11042,25 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>858</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>859</v>
+      <c r="B51" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>828</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="48"/>
+      <c r="J51" s="51"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11498,23 +11069,25 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="F52" s="28"/>
+      <c r="B52" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>831</v>
+      </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="48"/>
+      <c r="J52" s="51"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11522,26 +11095,26 @@
       <c r="O52" s="22"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="19"/>
-      <c r="B53" s="30" t="s">
-        <v>862</v>
+      <c r="A53" s="19" t="s">
+        <v>832</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>833</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>864</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="48"/>
+      <c r="J53" s="51"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11550,23 +11123,25 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="30" t="s">
-        <v>865</v>
+      <c r="B54" s="20" t="s">
+        <v>835</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>253</v>
+        <v>493</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="F54" s="28"/>
+        <v>836</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>837</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="48"/>
+      <c r="J54" s="51"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11575,25 +11150,23 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="30" t="s">
-        <v>867</v>
+      <c r="B55" s="20" t="s">
+        <v>838</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>868</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="48"/>
+      <c r="J55" s="51"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11601,26 +11174,28 @@
       <c r="O55" s="22"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="19"/>
+      <c r="A56" s="19" t="s">
+        <v>840</v>
+      </c>
       <c r="B56" s="20" t="s">
-        <v>869</v>
+        <v>841</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>692</v>
+        <v>576</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>870</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>871</v>
+        <v>794</v>
+      </c>
+      <c r="F56" s="28">
+        <v>3000</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="48"/>
+      <c r="J56" s="51"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11629,23 +11204,25 @@
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>838</v>
+      <c r="B57" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>844</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="48"/>
+      <c r="J57" s="51"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11655,24 +11232,24 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>873</v>
+        <v>845</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>847</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="48"/>
+      <c r="J58" s="51"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11681,25 +11258,23 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
-      <c r="B59" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>707</v>
+      <c r="B59" s="20"/>
+      <c r="C59" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>465</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="48"/>
+      <c r="J59" s="51"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11708,25 +11283,23 @@
     </row>
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="19"/>
-      <c r="B60" s="20" t="s">
-        <v>876</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>866</v>
+      <c r="B60" s="20"/>
+      <c r="C60" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>850</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="48"/>
+      <c r="J60" s="51"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11736,22 +11309,24 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="F61" s="27"/>
+        <v>852</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>787</v>
+      </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="48"/>
+      <c r="J61" s="51"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11760,21 +11335,25 @@
     </row>
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>853</v>
+      </c>
       <c r="C62" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="F62" s="27"/>
+        <v>854</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>855</v>
+      </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="48"/>
+      <c r="J62" s="51"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11784,24 +11363,24 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="20" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>530</v>
+        <v>49</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="48"/>
+      <c r="J63" s="51"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11811,49 +11390,48 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="20" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>530</v>
+        <v>363</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>884</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>885</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="48"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>253</v>
+        <v>536</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>887</v>
+        <v>858</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="48"/>
+      <c r="J65" s="1" t="s">
+        <v>861</v>
+      </c>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11863,47 +11441,51 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
-        <v>888</v>
+        <v>835</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>253</v>
+        <v>493</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="F66" s="27"/>
+        <v>862</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>863</v>
+      </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="48"/>
+      <c r="J66" s="51"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
       <c r="N66" s="23"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F67" s="27"/>
+        <v>864</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>865</v>
+      </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="48"/>
+      <c r="J67" s="51"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11913,22 +11495,24 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20" t="s">
-        <v>892</v>
+        <v>866</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>893</v>
-      </c>
-      <c r="F68" s="27"/>
+        <v>867</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>805</v>
+      </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="48"/>
+      <c r="J68" s="51"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11938,24 +11522,22 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20" t="s">
-        <v>894</v>
+        <v>868</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>895</v>
-      </c>
+        <v>869</v>
+      </c>
+      <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="48"/>
+      <c r="J69" s="51"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11964,23 +11546,23 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>838</v>
+      <c r="B70" s="37"/>
+      <c r="C70" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>871</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="48"/>
+      <c r="J70" s="51"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11989,25 +11571,25 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>897</v>
+      <c r="B71" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>873</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="48"/>
+      <c r="J71" s="51"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -12016,25 +11598,25 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>899</v>
+      <c r="B72" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>875</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="48"/>
+      <c r="J72" s="51"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -12042,24 +11624,26 @@
       <c r="O72" s="22"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="A73" s="52" t="s">
+        <v>876</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>877</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="48"/>
+      <c r="J73" s="51"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -12068,25 +11652,15 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
-      <c r="B74" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>897</v>
-      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="48"/>
+      <c r="J74" s="51"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -12095,23 +11669,15 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
-      <c r="B75" s="20" t="s">
-        <v>901</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>893</v>
-      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="48"/>
+      <c r="J75" s="51"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -12120,23 +11686,15 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
-      <c r="B76" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>903</v>
-      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="48"/>
+      <c r="J76" s="51"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -12145,23 +11703,15 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="19"/>
-      <c r="B77" s="20" t="s">
-        <v>904</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>905</v>
-      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="48"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -12170,23 +11720,15 @@
     </row>
     <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="19"/>
-      <c r="B78" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>907</v>
-      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="48"/>
+      <c r="J78" s="51"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -12195,23 +11737,15 @@
     </row>
     <row r="79" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="19"/>
-      <c r="B79" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>907</v>
-      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="48"/>
+      <c r="J79" s="51"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -12220,23 +11754,15 @@
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="19"/>
-      <c r="B80" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>910</v>
-      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="48"/>
+      <c r="J80" s="51"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -12245,23 +11771,15 @@
     </row>
     <row r="81" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="19"/>
-      <c r="B81" s="20" t="s">
-        <v>911</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>912</v>
-      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="48"/>
+      <c r="J81" s="51"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -12269,51 +11787,33 @@
       <c r="O81" s="22"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="19" t="s">
-        <v>913</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>903</v>
-      </c>
+      <c r="A82" s="19"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="48"/>
+      <c r="J82" s="51"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
       <c r="N82" s="23"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="83" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="19"/>
-      <c r="B83" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>903</v>
-      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="48"/>
+      <c r="J83" s="51"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -12321,26 +11821,16 @@
       <c r="O83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>792</v>
-      </c>
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="48"/>
+      <c r="J84" s="51"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -12349,25 +11839,15 @@
     </row>
     <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="19"/>
-      <c r="B85" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>832</v>
-      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="48"/>
+      <c r="J85" s="51"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -12376,25 +11856,15 @@
     </row>
     <row r="86" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="19"/>
-      <c r="B86" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="C86" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="F86" s="36" t="s">
-        <v>834</v>
-      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="48"/>
+      <c r="J86" s="51"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -12403,25 +11873,15 @@
     </row>
     <row r="87" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="19"/>
-      <c r="B87" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>836</v>
-      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="48"/>
+      <c r="J87" s="51"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -12430,23 +11890,15 @@
     </row>
     <row r="88" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="19"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F88" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="48"/>
+      <c r="J88" s="51"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -12455,25 +11907,15 @@
     </row>
     <row r="89" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="19"/>
-      <c r="B89" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>840</v>
-      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="48"/>
+      <c r="J89" s="51"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -12482,23 +11924,15 @@
     </row>
     <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="19"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="48"/>
+      <c r="J90" s="51"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -12507,25 +11941,15 @@
     </row>
     <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="19"/>
-      <c r="B91" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>868</v>
-      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="48"/>
+      <c r="J91" s="51"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -12534,25 +11958,15 @@
     </row>
     <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A92" s="19"/>
-      <c r="B92" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>692</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>870</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>871</v>
-      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="48"/>
+      <c r="J92" s="51"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12562,22 +11976,14 @@
     <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="48"/>
+      <c r="J93" s="51"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12586,25 +11992,15 @@
     </row>
     <row r="94" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="19"/>
-      <c r="B94" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>856</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>873</v>
-      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="48"/>
+      <c r="J94" s="51"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12613,25 +12009,15 @@
     </row>
     <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="19"/>
-      <c r="B95" s="20" t="s">
-        <v>874</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="F95" s="27" t="s">
-        <v>875</v>
-      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="48"/>
+      <c r="J95" s="51"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12640,25 +12026,15 @@
     </row>
     <row r="96" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="19"/>
-      <c r="B96" s="20" t="s">
-        <v>876</v>
-      </c>
-      <c r="C96" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>877</v>
-      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="48"/>
+      <c r="J96" s="51"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12667,23 +12043,15 @@
     </row>
     <row r="97" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="19"/>
-      <c r="B97" s="20" t="s">
-        <v>878</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>879</v>
-      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="48"/>
+      <c r="J97" s="51"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12693,20 +12061,14 @@
     <row r="98" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
-      <c r="C98" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>879</v>
-      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="48"/>
+      <c r="J98" s="51"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12715,25 +12077,15 @@
     </row>
     <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A99" s="19"/>
-      <c r="B99" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>895</v>
-      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="48"/>
+      <c r="J99" s="51"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12743,22 +12095,14 @@
     <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
-      <c r="C100" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F100" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="48"/>
+      <c r="J100" s="51"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12767,25 +12111,15 @@
     </row>
     <row r="101" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="19"/>
-      <c r="B101" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>897</v>
-      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="48"/>
+      <c r="J101" s="51"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12794,25 +12128,15 @@
     </row>
     <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="19"/>
-      <c r="B102" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="C102" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>899</v>
-      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="48"/>
+      <c r="J102" s="51"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12822,22 +12146,14 @@
     <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
-      <c r="C103" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>838</v>
-      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="48"/>
+      <c r="J103" s="51"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12846,25 +12162,15 @@
     </row>
     <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A104" s="19"/>
-      <c r="B104" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="C104" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>897</v>
-      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="48"/>
+      <c r="J104" s="51"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12873,23 +12179,15 @@
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
-      <c r="B105" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>917</v>
-      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="48"/>
+      <c r="J105" s="51"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12906,7 +12204,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="48"/>
+      <c r="J106" s="51"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12923,7 +12221,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="48"/>
+      <c r="J107" s="51"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12940,7 +12238,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="48"/>
+      <c r="J108" s="51"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12957,7 +12255,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="48"/>
+      <c r="J109" s="51"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12974,7 +12272,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="48"/>
+      <c r="J110" s="51"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12991,7 +12289,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="48"/>
+      <c r="J111" s="51"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -13008,7 +12306,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="48"/>
+      <c r="J112" s="51"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -13025,7 +12323,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="48"/>
+      <c r="J113" s="51"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -13042,7 +12340,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="48"/>
+      <c r="J114" s="51"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -13059,7 +12357,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="48"/>
+      <c r="J115" s="51"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -13076,7 +12374,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="48"/>
+      <c r="J116" s="51"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -13093,7 +12391,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="48"/>
+      <c r="J117" s="51"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -13110,7 +12408,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="48"/>
+      <c r="J118" s="51"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -13127,7 +12425,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="48"/>
+      <c r="J119" s="51"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -13144,7 +12442,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="48"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -13161,7 +12459,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="48"/>
+      <c r="J121" s="51"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -13178,7 +12476,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="48"/>
+      <c r="J122" s="51"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -13195,7 +12493,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="48"/>
+      <c r="J123" s="51"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -13212,7 +12510,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="48"/>
+      <c r="J124" s="51"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -13229,7 +12527,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="48"/>
+      <c r="J125" s="51"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -13246,7 +12544,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="48"/>
+      <c r="J126" s="51"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -13263,7 +12561,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="48"/>
+      <c r="J127" s="51"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -13280,7 +12578,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="48"/>
+      <c r="J128" s="51"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -13297,7 +12595,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="48"/>
+      <c r="J129" s="51"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -13314,7 +12612,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="48"/>
+      <c r="J130" s="51"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -13331,7 +12629,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="48"/>
+      <c r="J131" s="51"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -13348,7 +12646,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="48"/>
+      <c r="J132" s="51"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -13365,7 +12663,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="48"/>
+      <c r="J133" s="51"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -13382,7 +12680,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="48"/>
+      <c r="J134" s="51"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -13399,7 +12697,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="48"/>
+      <c r="J135" s="51"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -13416,7 +12714,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="48"/>
+      <c r="J136" s="51"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -13433,7 +12731,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="48"/>
+      <c r="J137" s="51"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -13450,7 +12748,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="48"/>
+      <c r="J138" s="51"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -13467,7 +12765,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="48"/>
+      <c r="J139" s="51"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -13484,7 +12782,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="48"/>
+      <c r="J140" s="51"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -13501,7 +12799,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="48"/>
+      <c r="J141" s="51"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -13518,7 +12816,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="48"/>
+      <c r="J142" s="51"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -13535,7 +12833,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="48"/>
+      <c r="J143" s="51"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -13552,7 +12850,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="48"/>
+      <c r="J144" s="51"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -13569,7 +12867,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="48"/>
+      <c r="J145" s="51"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -13586,7 +12884,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="48"/>
+      <c r="J146" s="51"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -13603,7 +12901,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="48"/>
+      <c r="J147" s="51"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -13620,7 +12918,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="48"/>
+      <c r="J148" s="51"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -13637,7 +12935,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="48"/>
+      <c r="J149" s="51"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -13654,7 +12952,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="48"/>
+      <c r="J150" s="51"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13671,7 +12969,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="48"/>
+      <c r="J151" s="51"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13688,7 +12986,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="48"/>
+      <c r="J152" s="51"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13705,777 +13003,12 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="48"/>
+      <c r="J153" s="51"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
       <c r="N153" s="23"/>
       <c r="O153" s="22"/>
-    </row>
-    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="19"/>
-      <c r="B154" s="20"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="48"/>
-      <c r="K154" s="22"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="23"/>
-      <c r="O154" s="22"/>
-    </row>
-    <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="48"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="23"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="23"/>
-      <c r="O155" s="22"/>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="19"/>
-      <c r="B156" s="20"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="48"/>
-      <c r="K156" s="22"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="23"/>
-      <c r="O156" s="22"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="19"/>
-      <c r="B157" s="20"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="48"/>
-      <c r="K157" s="22"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="23"/>
-      <c r="O157" s="22"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="19"/>
-      <c r="B158" s="20"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="48"/>
-      <c r="K158" s="22"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="23"/>
-      <c r="O158" s="22"/>
-    </row>
-    <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="19"/>
-      <c r="B159" s="20"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="48"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="23"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="23"/>
-      <c r="O159" s="22"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="22"/>
-      <c r="L160" s="23"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="23"/>
-      <c r="O160" s="22"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="19"/>
-      <c r="B161" s="20"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="22"/>
-      <c r="L161" s="23"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="23"/>
-      <c r="O161" s="22"/>
-    </row>
-    <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="19"/>
-      <c r="B162" s="20"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="48"/>
-      <c r="K162" s="22"/>
-      <c r="L162" s="23"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="23"/>
-      <c r="O162" s="22"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="48"/>
-      <c r="K163" s="22"/>
-      <c r="L163" s="23"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="23"/>
-      <c r="O163" s="22"/>
-    </row>
-    <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="48"/>
-      <c r="K164" s="22"/>
-      <c r="L164" s="23"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="23"/>
-      <c r="O164" s="22"/>
-    </row>
-    <row r="165" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="19"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="48"/>
-      <c r="K165" s="22"/>
-      <c r="L165" s="23"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="23"/>
-      <c r="O165" s="22"/>
-    </row>
-    <row r="166" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="19"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="27"/>
-      <c r="H166" s="27"/>
-      <c r="I166" s="27"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="22"/>
-      <c r="L166" s="23"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="23"/>
-      <c r="O166" s="22"/>
-    </row>
-    <row r="167" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="19"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="27"/>
-      <c r="H167" s="27"/>
-      <c r="I167" s="27"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="22"/>
-      <c r="L167" s="23"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="23"/>
-      <c r="O167" s="22"/>
-    </row>
-    <row r="168" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A168" s="19"/>
-      <c r="B168" s="20"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="27"/>
-      <c r="H168" s="27"/>
-      <c r="I168" s="27"/>
-      <c r="J168" s="48"/>
-      <c r="K168" s="22"/>
-      <c r="L168" s="23"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="23"/>
-      <c r="O168" s="22"/>
-    </row>
-    <row r="169" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="19"/>
-      <c r="B169" s="20"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="27"/>
-      <c r="H169" s="27"/>
-      <c r="I169" s="27"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="22"/>
-      <c r="L169" s="23"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="23"/>
-      <c r="O169" s="22"/>
-    </row>
-    <row r="170" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="19"/>
-      <c r="B170" s="20"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="27"/>
-      <c r="J170" s="48"/>
-      <c r="K170" s="22"/>
-      <c r="L170" s="23"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="23"/>
-      <c r="O170" s="22"/>
-    </row>
-    <row r="171" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="20"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="27"/>
-      <c r="H171" s="27"/>
-      <c r="I171" s="27"/>
-      <c r="J171" s="48"/>
-      <c r="K171" s="22"/>
-      <c r="L171" s="23"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="23"/>
-      <c r="O171" s="22"/>
-    </row>
-    <row r="172" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="48"/>
-      <c r="K172" s="22"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="23"/>
-      <c r="O172" s="22"/>
-    </row>
-    <row r="173" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27"/>
-      <c r="H173" s="27"/>
-      <c r="I173" s="27"/>
-      <c r="J173" s="48"/>
-      <c r="K173" s="22"/>
-      <c r="L173" s="23"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="23"/>
-      <c r="O173" s="22"/>
-    </row>
-    <row r="174" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="27"/>
-      <c r="J174" s="48"/>
-      <c r="K174" s="22"/>
-      <c r="L174" s="23"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="23"/>
-      <c r="O174" s="22"/>
-    </row>
-    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27"/>
-      <c r="H175" s="27"/>
-      <c r="I175" s="27"/>
-      <c r="J175" s="48"/>
-      <c r="K175" s="22"/>
-      <c r="L175" s="23"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="23"/>
-      <c r="O175" s="22"/>
-    </row>
-    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="27"/>
-      <c r="H176" s="27"/>
-      <c r="I176" s="27"/>
-      <c r="J176" s="48"/>
-      <c r="K176" s="22"/>
-      <c r="L176" s="23"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="23"/>
-      <c r="O176" s="22"/>
-    </row>
-    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="27"/>
-      <c r="H177" s="27"/>
-      <c r="I177" s="27"/>
-      <c r="J177" s="48"/>
-      <c r="K177" s="22"/>
-      <c r="L177" s="23"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="23"/>
-      <c r="O177" s="22"/>
-    </row>
-    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="27"/>
-      <c r="H178" s="27"/>
-      <c r="I178" s="27"/>
-      <c r="J178" s="48"/>
-      <c r="K178" s="22"/>
-      <c r="L178" s="23"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="23"/>
-      <c r="O178" s="22"/>
-    </row>
-    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27"/>
-      <c r="H179" s="27"/>
-      <c r="I179" s="27"/>
-      <c r="J179" s="48"/>
-      <c r="K179" s="22"/>
-      <c r="L179" s="23"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="23"/>
-      <c r="O179" s="22"/>
-    </row>
-    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="48"/>
-      <c r="K180" s="22"/>
-      <c r="L180" s="23"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="23"/>
-      <c r="O180" s="22"/>
-    </row>
-    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="19"/>
-      <c r="B181" s="20"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="22"/>
-      <c r="L181" s="23"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="23"/>
-      <c r="O181" s="22"/>
-    </row>
-    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="19"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="48"/>
-      <c r="K182" s="22"/>
-      <c r="L182" s="23"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="23"/>
-      <c r="O182" s="22"/>
-    </row>
-    <row r="183" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="19"/>
-      <c r="B183" s="20"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="48"/>
-      <c r="K183" s="22"/>
-      <c r="L183" s="23"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="23"/>
-      <c r="O183" s="22"/>
-    </row>
-    <row r="184" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="19"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="48"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="23"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-    </row>
-    <row r="185" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="20"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="48"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="23"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="23"/>
-      <c r="O185" s="22"/>
-    </row>
-    <row r="186" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="48"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="23"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="23"/>
-      <c r="O186" s="22"/>
-    </row>
-    <row r="187" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="20"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="48"/>
-      <c r="K187" s="22"/>
-      <c r="L187" s="23"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="23"/>
-      <c r="O187" s="22"/>
-    </row>
-    <row r="188" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="48"/>
-      <c r="K188" s="22"/>
-      <c r="L188" s="23"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="23"/>
-      <c r="O188" s="22"/>
-    </row>
-    <row r="189" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="20"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="48"/>
-      <c r="K189" s="22"/>
-      <c r="L189" s="23"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="23"/>
-      <c r="O189" s="22"/>
-    </row>
-    <row r="190" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="20"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="22"/>
-      <c r="L190" s="23"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="23"/>
-      <c r="O190" s="22"/>
-    </row>
-    <row r="191" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A191" s="19"/>
-      <c r="B191" s="20"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="48"/>
-      <c r="K191" s="22"/>
-      <c r="L191" s="23"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="23"/>
-      <c r="O191" s="22"/>
-    </row>
-    <row r="192" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A192" s="19"/>
-      <c r="B192" s="20"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27"/>
-      <c r="H192" s="27"/>
-      <c r="I192" s="27"/>
-      <c r="J192" s="48"/>
-      <c r="K192" s="22"/>
-      <c r="L192" s="23"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="23"/>
-      <c r="O192" s="22"/>
-    </row>
-    <row r="193" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A193" s="19"/>
-      <c r="B193" s="20"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="27"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="48"/>
-      <c r="K193" s="22"/>
-      <c r="L193" s="23"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-    </row>
-    <row r="194" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A194" s="19"/>
-      <c r="B194" s="20"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="27"/>
-      <c r="J194" s="48"/>
-      <c r="K194" s="22"/>
-      <c r="L194" s="23"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="23"/>
-      <c r="O194" s="22"/>
-    </row>
-    <row r="195" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A195" s="19"/>
-      <c r="B195" s="20"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="48"/>
-      <c r="K195" s="22"/>
-      <c r="L195" s="23"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="23"/>
-      <c r="O195" s="22"/>
-    </row>
-    <row r="196" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A196" s="19"/>
-      <c r="B196" s="20"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="27"/>
-      <c r="J196" s="48"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="23"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="23"/>
-      <c r="O196" s="22"/>
-    </row>
-    <row r="197" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A197" s="19"/>
-      <c r="B197" s="20"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="27"/>
-      <c r="J197" s="48"/>
-      <c r="K197" s="22"/>
-      <c r="L197" s="23"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="23"/>
-      <c r="O197" s="22"/>
-    </row>
-    <row r="198" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A198" s="19"/>
-      <c r="B198" s="20"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="27"/>
-      <c r="J198" s="48"/>
-      <c r="K198" s="22"/>
-      <c r="L198" s="23"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="23"/>
-      <c r="O198" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14484,18 +13017,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N99:N198">
+  <conditionalFormatting sqref="N71:N153">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N98">
+  <conditionalFormatting sqref="N1 N3:N70">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -14507,10 +13040,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C39 C42 C43 C44 C49 C56 C57 C62 C69 C70 C71 C72 C73 C74 C82 C83 C84 C85 C88 C89 C90 C91 C92 C93 C98 C99 C100 C101 C102 C103 C104 C7:C8 C10:C12 C16:C17 C25:C28 C29:C38 C40:C41 C45:C48 C50:C55 C58:C61 C63:C68 C75:C81 C86:C87 C94:C97 C105:C198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C28 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C68 C69 C70 C71 C72 C7:C8 C20:C21 C29:C31 C40:C42 C53:C54 C63:C64 C73:C153">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D39 D42 D43 D44 D49 D56 D57 D62 D69 D70 D71 D72 D73 D74 D82 D83 D84 D85 D88 D89 D90 D91 D92 D93 D98 D99 D100 D101 D102 D103 D104 D7:D8 D10:D12 D16:D17 D25:D28 D29:D38 D40:D41 D45:D48 D50:D55 D58:D61 D63:D68 D75:D81 D86:D87 D94:D97 D105:D198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D22 D23 D24 D25 D26 D27 D28 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D61 D62 D65 D66 D67 D68 D69 D70 D71 D72 D7:D8 D20:D21 D29:D31 D40:D42 D53:D54 D63:D64 D73:D153">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -9689,8 +9689,8 @@
   <sheetPr/>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D54" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="883">
   <si>
     <t>target</t>
   </si>
@@ -2429,9 +2429,15 @@
     <t>1</t>
   </si>
   <si>
+    <t>Where is the verification the item is added successfully?</t>
+  </si>
+  <si>
     <t>click again add item button to add Items section</t>
   </si>
   <si>
+    <t>If the test case is for add item why delete item is there in between?</t>
+  </si>
+  <si>
     <t>delete the selected Items field</t>
   </si>
   <si>
@@ -2501,6 +2507,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>If you click on Reset button then what should be verified after that?</t>
+  </si>
+  <si>
     <t>click on reset button</t>
   </si>
   <si>
@@ -2589,6 +2598,9 @@
   </si>
   <si>
     <t>click on go back</t>
+  </si>
+  <si>
+    <t>If the test case is redirection to transfer note then why so many steps to return to that page</t>
   </si>
   <si>
     <t>Saving the table row count in variable</t>
@@ -2712,7 +2724,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2777,6 +2789,13 @@
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3320,14 +3339,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3336,119 +3352,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3574,6 +3593,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3608,7 +3631,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3616,23 +3639,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3641,10 +3660,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6741,14 +6764,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="41"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6762,12 +6785,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6779,7 +6802,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6814,10 +6837,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6832,7 +6855,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6847,18 +6870,18 @@
       <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -6870,7 +6893,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="51"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
       <c r="M6" s="21"/>
@@ -6887,7 +6910,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -6904,7 +6927,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -6921,7 +6944,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6938,7 +6961,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6955,7 +6978,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6972,7 +6995,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -6989,7 +7012,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7006,7 +7029,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7023,7 +7046,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7040,7 +7063,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7057,7 +7080,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7074,7 +7097,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7091,7 +7114,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7108,7 +7131,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7125,7 +7148,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="51"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7142,7 +7165,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7159,7 +7182,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7176,7 +7199,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7193,7 +7216,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="51"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7210,7 +7233,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7227,7 +7250,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7244,7 +7267,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7261,7 +7284,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7278,7 +7301,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="51"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7295,7 +7318,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7312,7 +7335,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="51"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7329,7 +7352,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="51"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7346,7 +7369,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7363,7 +7386,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="51"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7380,7 +7403,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="51"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7397,7 +7420,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="51"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7414,7 +7437,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="51"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7431,7 +7454,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="51"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7448,7 +7471,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="51"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7465,7 +7488,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7482,7 +7505,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7499,7 +7522,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="51"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7516,7 +7539,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7533,7 +7556,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="51"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7550,7 +7573,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7567,7 +7590,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7584,7 +7607,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7601,7 +7624,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="51"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7618,7 +7641,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="51"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7635,7 +7658,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="51"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7652,7 +7675,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="51"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7669,7 +7692,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="51"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7686,7 +7709,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="51"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7703,7 +7726,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="51"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7720,7 +7743,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="51"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7737,7 +7760,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="51"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7754,7 +7777,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="51"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7771,7 +7794,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="51"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7788,7 +7811,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="51"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7805,7 +7828,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="51"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7822,7 +7845,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="51"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7839,7 +7862,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="51"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7856,7 +7879,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="51"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7873,7 +7896,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="51"/>
+      <c r="J65" s="52"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7890,7 +7913,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7907,7 +7930,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7924,7 +7947,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7941,7 +7964,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7958,7 +7981,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7975,7 +7998,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="51"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -7992,7 +8015,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="51"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8009,7 +8032,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="51"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8026,7 +8049,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="51"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8043,7 +8066,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="51"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8060,7 +8083,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="51"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8077,7 +8100,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="51"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8094,7 +8117,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="51"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8111,7 +8134,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8128,7 +8151,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="51"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8145,7 +8168,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="51"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8162,7 +8185,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="51"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8179,7 +8202,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="51"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8196,7 +8219,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="51"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8213,7 +8236,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="51"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8230,7 +8253,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="51"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8247,7 +8270,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="51"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8264,7 +8287,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="51"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8281,7 +8304,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="51"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8298,7 +8321,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="51"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8315,7 +8338,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="51"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8332,7 +8355,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="51"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8349,7 +8372,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="51"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8366,7 +8389,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="51"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8383,7 +8406,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="51"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8400,7 +8423,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="51"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8417,7 +8440,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="51"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8434,7 +8457,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="51"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8451,7 +8474,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="51"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8468,7 +8491,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="51"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8485,7 +8508,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="51"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8502,7 +8525,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="51"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8519,7 +8542,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="51"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8536,7 +8559,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="51"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8553,7 +8576,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="51"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8570,7 +8593,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="51"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8587,7 +8610,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="51"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8604,7 +8627,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="51"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8621,7 +8644,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="51"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8638,7 +8661,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="51"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8655,7 +8678,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="51"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8672,7 +8695,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="51"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8689,7 +8712,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="51"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8706,7 +8729,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="51"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8723,7 +8746,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="51"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8740,7 +8763,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="51"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8757,7 +8780,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="51"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8774,7 +8797,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="51"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8791,7 +8814,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="51"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8808,7 +8831,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="51"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8825,7 +8848,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="51"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8842,7 +8865,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="51"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8859,7 +8882,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="51"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8876,7 +8899,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="51"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8893,7 +8916,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="51"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8910,7 +8933,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="51"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8927,7 +8950,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="51"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8944,7 +8967,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="51"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8961,7 +8984,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="51"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -8978,7 +9001,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="51"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -8995,7 +9018,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="51"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9012,7 +9035,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="51"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9029,7 +9052,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="51"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9046,7 +9069,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="51"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9063,7 +9086,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="51"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9080,7 +9103,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="51"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9097,7 +9120,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="51"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9114,7 +9137,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="51"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9131,7 +9154,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="51"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9148,7 +9171,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="51"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9165,7 +9188,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="51"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9182,7 +9205,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="51"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9199,7 +9222,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="51"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9216,7 +9239,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="51"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9233,7 +9256,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="51"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9250,7 +9273,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="51"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9267,7 +9290,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="51"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9284,7 +9307,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="51"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9301,7 +9324,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="51"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9318,7 +9341,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="51"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9335,7 +9358,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="51"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9352,7 +9375,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="51"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9369,7 +9392,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="51"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9386,7 +9409,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="51"/>
+      <c r="J154" s="52"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9403,7 +9426,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="51"/>
+      <c r="J155" s="52"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9420,7 +9443,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="51"/>
+      <c r="J156" s="52"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9437,7 +9460,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="51"/>
+      <c r="J157" s="52"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9454,7 +9477,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="51"/>
+      <c r="J158" s="52"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9471,7 +9494,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="51"/>
+      <c r="J159" s="52"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9488,7 +9511,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="51"/>
+      <c r="J160" s="52"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9505,7 +9528,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="51"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9522,7 +9545,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="51"/>
+      <c r="J162" s="52"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9539,7 +9562,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="51"/>
+      <c r="J163" s="52"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9556,7 +9579,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="51"/>
+      <c r="J164" s="52"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9573,7 +9596,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="51"/>
+      <c r="J165" s="52"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9590,7 +9613,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="51"/>
+      <c r="J166" s="52"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9607,7 +9630,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="51"/>
+      <c r="J167" s="52"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9624,7 +9647,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="51"/>
+      <c r="J168" s="52"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9689,8 +9712,8 @@
   <sheetPr/>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9734,14 +9757,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="41"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9755,12 +9778,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9772,7 +9795,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="44"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9807,10 +9830,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="46" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="46"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9846,12 +9869,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -9871,12 +9894,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -9896,7 +9919,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -9921,7 +9944,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -9946,7 +9969,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="51"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -9971,7 +9994,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -9998,7 +10021,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10023,7 +10046,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -10052,7 +10075,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="51"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10079,7 +10102,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="51"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10106,7 +10129,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="51"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10133,7 +10156,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="51"/>
+      <c r="J16" s="52"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10158,7 +10181,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10185,7 +10208,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10193,9 +10216,11 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="37" t="s">
+        <v>788</v>
+      </c>
       <c r="B19" s="20" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
@@ -10210,7 +10235,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10218,9 +10243,11 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="37" t="s">
+        <v>790</v>
+      </c>
       <c r="B20" s="31" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>30</v>
@@ -10229,13 +10256,13 @@
         <v>600</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10245,7 +10272,7 @@
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
       <c r="B21" s="31" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>30</v>
@@ -10258,7 +10285,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="51"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -10267,10 +10294,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10279,7 +10306,7 @@
         <v>576</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F22" s="28">
         <v>5000</v>
@@ -10287,7 +10314,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10312,7 +10339,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10322,7 +10349,7 @@
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="30" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10337,7 +10364,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="51"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10346,7 +10373,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="19" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>774</v>
@@ -10366,7 +10393,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="51"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -10393,7 +10420,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10403,7 +10430,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="30" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10412,15 +10439,15 @@
         <v>707</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10430,7 +10457,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10439,15 +10466,15 @@
         <v>692</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="51"/>
+      <c r="J28" s="52"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10457,7 +10484,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>30</v>
@@ -10466,15 +10493,15 @@
         <v>707</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10484,7 +10511,7 @@
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19"/>
       <c r="B30" s="20" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10493,15 +10520,15 @@
         <v>707</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="51"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10511,7 +10538,7 @@
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
       <c r="B31" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
@@ -10520,15 +10547,15 @@
         <v>707</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="51"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10555,7 +10582,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="51"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10580,7 +10607,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="51"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10607,7 +10634,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="51"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -10615,9 +10642,11 @@
       <c r="O34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A35" s="19"/>
+      <c r="A35" s="37" t="s">
+        <v>814</v>
+      </c>
       <c r="B35" s="20" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
@@ -10626,7 +10655,7 @@
         <v>576</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F35" s="28">
         <v>3000</v>
@@ -10634,7 +10663,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="51"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -10643,7 +10672,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="19" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>774</v>
@@ -10663,7 +10692,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="51"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -10690,7 +10719,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="51"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10699,10 +10728,10 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -10711,15 +10740,15 @@
         <v>707</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="51"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10729,7 +10758,7 @@
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="20" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>30</v>
@@ -10738,15 +10767,15 @@
         <v>692</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="51"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10756,7 +10785,7 @@
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
       <c r="B40" s="20" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>30</v>
@@ -10765,15 +10794,15 @@
         <v>707</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="51"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10783,7 +10812,7 @@
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="20" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -10792,15 +10821,15 @@
         <v>707</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="51"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10810,7 +10839,7 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
@@ -10819,15 +10848,15 @@
         <v>707</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="51"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10854,7 +10883,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="51"/>
+      <c r="J43" s="52"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10879,7 +10908,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="51"/>
+      <c r="J44" s="52"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10906,7 +10935,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="51"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10916,7 +10945,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="20" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -10925,13 +10954,13 @@
         <v>363</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="51"/>
+      <c r="J46" s="52"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -10941,7 +10970,7 @@
     <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
       <c r="B47" s="20" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -10950,13 +10979,13 @@
         <v>363</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10966,7 +10995,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
@@ -10975,13 +11004,13 @@
         <v>363</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="51"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -10991,7 +11020,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="20" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
@@ -11000,13 +11029,13 @@
         <v>363</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="51"/>
+      <c r="J49" s="52"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -11015,8 +11044,8 @@
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="37" t="s">
-        <v>823</v>
+      <c r="B50" s="38" t="s">
+        <v>826</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>30</v>
@@ -11025,15 +11054,15 @@
         <v>493</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="51"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11042,8 +11071,8 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="37" t="s">
-        <v>826</v>
+      <c r="B51" s="38" t="s">
+        <v>829</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>5</v>
@@ -11052,15 +11081,15 @@
         <v>471</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="51"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11069,8 +11098,8 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="37" t="s">
-        <v>829</v>
+      <c r="B52" s="38" t="s">
+        <v>832</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>5</v>
@@ -11079,15 +11108,15 @@
         <v>49</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="51"/>
+      <c r="J52" s="52"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11096,10 +11125,10 @@
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
@@ -11108,13 +11137,13 @@
         <v>253</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="51"/>
+      <c r="J53" s="52"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11124,7 +11153,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="20" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11133,15 +11162,15 @@
         <v>493</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="51"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11151,7 +11180,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="20" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
@@ -11160,13 +11189,13 @@
         <v>363</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="51"/>
+      <c r="J55" s="52"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11175,10 +11204,10 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11187,7 +11216,7 @@
         <v>576</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F56" s="28">
         <v>3000</v>
@@ -11195,7 +11224,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="51"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11203,9 +11232,11 @@
       <c r="O56" s="22"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="19"/>
+      <c r="A57" s="37" t="s">
+        <v>845</v>
+      </c>
       <c r="B57" s="20" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
@@ -11214,15 +11245,15 @@
         <v>483</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="51"/>
+      <c r="J57" s="52"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11232,7 +11263,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>5</v>
@@ -11241,15 +11272,15 @@
         <v>471</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>846</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>847</v>
+        <v>850</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>851</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="51"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11266,15 +11297,15 @@
         <v>465</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="51"/>
+      <c r="J59" s="52"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -11287,19 +11318,19 @@
       <c r="C60" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="40" t="s">
         <v>49</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="51"/>
+      <c r="J60" s="52"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -11309,24 +11340,24 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="19"/>
       <c r="B61" s="20" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="40" t="s">
         <v>302</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>846</v>
-      </c>
-      <c r="F61" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>787</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="51"/>
+      <c r="J61" s="52"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11336,7 +11367,7 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="20" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>30</v>
@@ -11345,15 +11376,15 @@
         <v>493</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="51"/>
+      <c r="J62" s="52"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11363,7 +11394,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
       <c r="B63" s="20" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>5</v>
@@ -11372,15 +11403,15 @@
         <v>49</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="51"/>
+      <c r="J63" s="52"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11390,7 +11421,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
       <c r="B64" s="20" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>30</v>
@@ -11399,7 +11430,7 @@
         <v>363</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
@@ -11414,7 +11445,7 @@
     <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>5</v>
@@ -11423,14 +11454,14 @@
         <v>536</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
@@ -11441,7 +11472,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11450,15 +11481,15 @@
         <v>493</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="51"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -11468,7 +11499,7 @@
     <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>5</v>
@@ -11477,15 +11508,15 @@
         <v>49</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="51"/>
+      <c r="J67" s="52"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11495,7 +11526,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
@@ -11504,15 +11535,15 @@
         <v>707</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="51"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -11522,7 +11553,7 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>30</v>
@@ -11531,13 +11562,13 @@
         <v>363</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="51"/>
+      <c r="J69" s="52"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11546,7 +11577,7 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="37"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="32" t="s">
         <v>30</v>
       </c>
@@ -11554,15 +11585,15 @@
         <v>493</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="51"/>
+      <c r="J70" s="52"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -11571,8 +11602,8 @@
     </row>
     <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="37" t="s">
-        <v>826</v>
+      <c r="B71" s="38" t="s">
+        <v>829</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>5</v>
@@ -11581,15 +11612,15 @@
         <v>471</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="51"/>
+      <c r="J71" s="52"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11598,8 +11629,8 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="37" t="s">
-        <v>829</v>
+      <c r="B72" s="38" t="s">
+        <v>832</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>5</v>
@@ -11608,15 +11639,15 @@
         <v>49</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="51"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11624,26 +11655,26 @@
       <c r="O72" s="22"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="52" t="s">
-        <v>876</v>
-      </c>
-      <c r="B73" s="53" t="s">
-        <v>877</v>
-      </c>
-      <c r="C73" s="54" t="s">
+      <c r="A73" s="53" t="s">
+        <v>880</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="C73" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="E73" s="55" t="s">
-        <v>878</v>
+      <c r="E73" s="56" t="s">
+        <v>882</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="51"/>
+      <c r="J73" s="52"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11660,7 +11691,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="51"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11677,7 +11708,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="51"/>
+      <c r="J75" s="52"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11694,7 +11725,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="51"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11711,7 +11742,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="51"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11728,7 +11759,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="51"/>
+      <c r="J78" s="52"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11745,7 +11776,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="51"/>
+      <c r="J79" s="52"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11762,7 +11793,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="51"/>
+      <c r="J80" s="52"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11779,7 +11810,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="51"/>
+      <c r="J81" s="52"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11796,7 +11827,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="51"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11813,7 +11844,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="51"/>
+      <c r="J83" s="52"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11830,7 +11861,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="51"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11847,7 +11878,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="51"/>
+      <c r="J85" s="52"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11864,7 +11895,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="51"/>
+      <c r="J86" s="52"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11881,7 +11912,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="51"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11898,7 +11929,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="51"/>
+      <c r="J88" s="52"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11915,7 +11946,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="51"/>
+      <c r="J89" s="52"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11932,7 +11963,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="51"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11949,7 +11980,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="51"/>
+      <c r="J91" s="52"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11966,7 +11997,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="51"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -11983,7 +12014,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="51"/>
+      <c r="J93" s="52"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12000,7 +12031,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="51"/>
+      <c r="J94" s="52"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12017,7 +12048,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="51"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12034,7 +12065,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="51"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12051,7 +12082,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="51"/>
+      <c r="J97" s="52"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12068,7 +12099,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="51"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12085,7 +12116,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="51"/>
+      <c r="J99" s="52"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12102,7 +12133,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="51"/>
+      <c r="J100" s="52"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12119,7 +12150,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="51"/>
+      <c r="J101" s="52"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12136,7 +12167,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="51"/>
+      <c r="J102" s="52"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12153,7 +12184,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="51"/>
+      <c r="J103" s="52"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12170,7 +12201,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="51"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12187,7 +12218,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="51"/>
+      <c r="J105" s="52"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12204,7 +12235,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="51"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12221,7 +12252,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="51"/>
+      <c r="J107" s="52"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12238,7 +12269,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="51"/>
+      <c r="J108" s="52"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12255,7 +12286,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="51"/>
+      <c r="J109" s="52"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12272,7 +12303,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="51"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12289,7 +12320,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="51"/>
+      <c r="J111" s="52"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12306,7 +12337,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="51"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12323,7 +12354,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="51"/>
+      <c r="J113" s="52"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12340,7 +12371,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="51"/>
+      <c r="J114" s="52"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12357,7 +12388,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="51"/>
+      <c r="J115" s="52"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12374,7 +12405,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="51"/>
+      <c r="J116" s="52"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12391,7 +12422,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="51"/>
+      <c r="J117" s="52"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12408,7 +12439,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="51"/>
+      <c r="J118" s="52"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12425,7 +12456,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="51"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12442,7 +12473,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="51"/>
+      <c r="J120" s="52"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12459,7 +12490,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="51"/>
+      <c r="J121" s="52"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12476,7 +12507,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="51"/>
+      <c r="J122" s="52"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12493,7 +12524,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="51"/>
+      <c r="J123" s="52"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12510,7 +12541,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="51"/>
+      <c r="J124" s="52"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12527,7 +12558,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="51"/>
+      <c r="J125" s="52"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12544,7 +12575,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="51"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12561,7 +12592,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="51"/>
+      <c r="J127" s="52"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12578,7 +12609,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="51"/>
+      <c r="J128" s="52"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12595,7 +12626,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="51"/>
+      <c r="J129" s="52"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12612,7 +12643,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="51"/>
+      <c r="J130" s="52"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12629,7 +12660,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="51"/>
+      <c r="J131" s="52"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12646,7 +12677,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="51"/>
+      <c r="J132" s="52"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12663,7 +12694,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="51"/>
+      <c r="J133" s="52"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12680,7 +12711,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="51"/>
+      <c r="J134" s="52"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12697,7 +12728,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="51"/>
+      <c r="J135" s="52"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12714,7 +12745,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="51"/>
+      <c r="J136" s="52"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12731,7 +12762,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="51"/>
+      <c r="J137" s="52"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12748,7 +12779,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="51"/>
+      <c r="J138" s="52"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12765,7 +12796,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="51"/>
+      <c r="J139" s="52"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12782,7 +12813,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="51"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12799,7 +12830,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="51"/>
+      <c r="J141" s="52"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12816,7 +12847,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="51"/>
+      <c r="J142" s="52"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12833,7 +12864,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="51"/>
+      <c r="J143" s="52"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12850,7 +12881,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="51"/>
+      <c r="J144" s="52"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12867,7 +12898,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="51"/>
+      <c r="J145" s="52"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12884,7 +12915,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="51"/>
+      <c r="J146" s="52"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12901,7 +12932,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="51"/>
+      <c r="J147" s="52"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12918,7 +12949,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="51"/>
+      <c r="J148" s="52"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12935,7 +12966,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="51"/>
+      <c r="J149" s="52"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12952,7 +12983,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="51"/>
+      <c r="J150" s="52"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -12969,7 +13000,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="51"/>
+      <c r="J151" s="52"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -12986,7 +13017,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="51"/>
+      <c r="J152" s="52"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13003,7 +13034,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="51"/>
+      <c r="J153" s="52"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>

--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="888">
   <si>
     <t>target</t>
   </si>
@@ -2375,6 +2375,126 @@
     <t>${cTransferNote.Heading}</t>
   </si>
   <si>
+    <t>Back Functionality</t>
+  </si>
+  <si>
+    <t>click on back button to go back to the dashboard page from create Transfer note page</t>
+  </si>
+  <si>
+    <t>${backTransferNote.Button}</t>
+  </si>
+  <si>
+    <t>click again Add button in Transfer Note</t>
+  </si>
+  <si>
+    <t>Reset Functionality</t>
+  </si>
+  <si>
+    <t>select Dispatch from address</t>
+  </si>
+  <si>
+    <t>${tn.dispatch.From.values}</t>
+  </si>
+  <si>
+    <t>Primary Godown (Primary Godown's address)</t>
+  </si>
+  <si>
+    <t>select Dispatch To address</t>
+  </si>
+  <si>
+    <t>${tn.dispatch.to.values}</t>
+  </si>
+  <si>
+    <t>Test_Godown (XYZ, WhiteField, Karnataka,560066)</t>
+  </si>
+  <si>
+    <t>Enter the values in number of package</t>
+  </si>
+  <si>
+    <t>${td.noofpackage.values}</t>
+  </si>
+  <si>
+    <t>${No.ofpackage}</t>
+  </si>
+  <si>
+    <t>select the transport by option</t>
+  </si>
+  <si>
+    <t>${td.transportby.values}</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter date of supply date </t>
+  </si>
+  <si>
+    <t>${td.dateofsupply.values}</t>
+  </si>
+  <si>
+    <t>${SupplyDate}</t>
+  </si>
+  <si>
+    <t>enter receipt date</t>
+  </si>
+  <si>
+    <t>${td.receipt.date.values}</t>
+  </si>
+  <si>
+    <t>${receiptDate}</t>
+  </si>
+  <si>
+    <t>enter grace period value</t>
+  </si>
+  <si>
+    <t>${td.graceperiod.values}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Select Items in Item field</t>
+  </si>
+  <si>
+    <t>${select.Items.First}</t>
+  </si>
+  <si>
+    <t>Yogurt</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>{DOWN}{ENTER}</t>
+  </si>
+  <si>
+    <t>Enter values in quantity field</t>
+  </si>
+  <si>
+    <t>${add.first.ItemQuantity}</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>If you click on Reset button then what should be verified after that?</t>
+  </si>
+  <si>
+    <t>click on reset button</t>
+  </si>
+  <si>
+    <t>${click.Reset.Button}</t>
+  </si>
+  <si>
+    <t>Verify the Dispatch from values not present</t>
+  </si>
+  <si>
+    <t>verify Dispatch to values not present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify selected Items not present </t>
+  </si>
+  <si>
     <t>Add Item</t>
   </si>
   <si>
@@ -2387,55 +2507,16 @@
     <t>3000</t>
   </si>
   <si>
-    <t>select Dispatch from address</t>
-  </si>
-  <si>
-    <t>${tn.dispatch.From.values}</t>
-  </si>
-  <si>
-    <t>Primary Godown (Primary Godown's address)</t>
-  </si>
-  <si>
-    <t>select Dispatch To address</t>
-  </si>
-  <si>
-    <t>${tn.dispatch.to.values}</t>
-  </si>
-  <si>
-    <t>Test_Godown (XYZ, WhiteField, Karnataka,560066)</t>
-  </si>
-  <si>
-    <t>Select Items in Item field</t>
-  </si>
-  <si>
-    <t>${select.Items.First}</t>
-  </si>
-  <si>
-    <t>Yogurt</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>{DOWN}{ENTER}</t>
-  </si>
-  <si>
-    <t>Enter values in quantity field</t>
-  </si>
-  <si>
-    <t>${add.first.ItemQuantity}</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Where is the verification the item is added successfully?</t>
   </si>
   <si>
-    <t>click again add item button to add Items section</t>
-  </si>
-  <si>
-    <t>If the test case is for add item why delete item is there in between?</t>
+    <t>verify the Item section added or not after clicking addItem button</t>
+  </si>
+  <si>
+    <t>${verify.addedItem}</t>
+  </si>
+  <si>
+    <t>Delete added Item section</t>
   </si>
   <si>
     <t>delete the selected Items field</t>
@@ -2447,75 +2528,6 @@
     <t>Refresh the page</t>
   </si>
   <si>
-    <t>Back Functionality</t>
-  </si>
-  <si>
-    <t>click on back button to go back to the dashboard page from create Transfer note page</t>
-  </si>
-  <si>
-    <t>${backTransferNote.Button}</t>
-  </si>
-  <si>
-    <t>click again Add button in Transfer Note</t>
-  </si>
-  <si>
-    <t>Reset Functionality</t>
-  </si>
-  <si>
-    <t>Enter the values in number of package</t>
-  </si>
-  <si>
-    <t>${td.noofpackage.values}</t>
-  </si>
-  <si>
-    <t>${No.ofpackage}</t>
-  </si>
-  <si>
-    <t>select the transport by option</t>
-  </si>
-  <si>
-    <t>${td.transportby.values}</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter date of supply date </t>
-  </si>
-  <si>
-    <t>${td.dateofsupply.values}</t>
-  </si>
-  <si>
-    <t>${SupplyDate}</t>
-  </si>
-  <si>
-    <t>enter receipt date</t>
-  </si>
-  <si>
-    <t>${td.receipt.date.values}</t>
-  </si>
-  <si>
-    <t>${receiptDate}</t>
-  </si>
-  <si>
-    <t>enter grace period value</t>
-  </si>
-  <si>
-    <t>${td.graceperiod.values}</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>If you click on Reset button then what should be verified after that?</t>
-  </si>
-  <si>
-    <t>click on reset button</t>
-  </si>
-  <si>
-    <t>${click.Reset.Button}</t>
-  </si>
-  <si>
     <t>Transfer note Details</t>
   </si>
   <si>
@@ -2601,6 +2613,9 @@
   </si>
   <si>
     <t>If the test case is redirection to transfer note then why so many steps to return to that page</t>
+  </si>
+  <si>
+    <t>Approve the created Transfernote</t>
   </si>
   <si>
     <t>Saving the table row count in variable</t>
@@ -2724,7 +2739,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2796,6 +2811,18 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3339,135 +3366,135 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3597,9 +3624,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3631,7 +3673,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3639,15 +3681,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3655,19 +3697,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6764,14 +6806,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -6785,12 +6827,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -6802,7 +6844,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -6837,10 +6879,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -6855,7 +6897,7 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="40" customHeight="1" spans="1:15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="61" t="s">
         <v>747</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -6870,18 +6912,18 @@
       <c r="E5" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="62" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="49"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -6893,7 +6935,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="52"/>
+      <c r="J6" s="56"/>
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
       <c r="M6" s="21"/>
@@ -6910,7 +6952,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -6927,7 +6969,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -6944,7 +6986,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="52"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -6961,7 +7003,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="52"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -6978,7 +7020,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -6995,7 +7037,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
@@ -7012,7 +7054,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="52"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -7029,7 +7071,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="52"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -7046,7 +7088,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="52"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -7063,7 +7105,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="52"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -7080,7 +7122,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="52"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -7097,7 +7139,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="52"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -7114,7 +7156,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="52"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -7131,7 +7173,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="52"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -7148,7 +7190,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="52"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
@@ -7165,7 +7207,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="52"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -7182,7 +7224,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="52"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -7199,7 +7241,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="52"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -7216,7 +7258,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="52"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
@@ -7233,7 +7275,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="52"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -7250,7 +7292,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -7267,7 +7309,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="52"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -7284,7 +7326,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="52"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -7301,7 +7343,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="52"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -7318,7 +7360,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="52"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -7335,7 +7377,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="52"/>
+      <c r="J32" s="56"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -7352,7 +7394,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="52"/>
+      <c r="J33" s="56"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -7369,7 +7411,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="52"/>
+      <c r="J34" s="56"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
@@ -7386,7 +7428,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="52"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
@@ -7403,7 +7445,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="52"/>
+      <c r="J36" s="56"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
@@ -7420,7 +7462,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="52"/>
+      <c r="J37" s="56"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -7437,7 +7479,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="52"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -7454,7 +7496,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="52"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -7471,7 +7513,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="52"/>
+      <c r="J40" s="56"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -7488,7 +7530,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="52"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -7505,7 +7547,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="52"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -7522,7 +7564,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="52"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -7539,7 +7581,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="52"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -7556,7 +7598,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="52"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -7573,7 +7615,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="52"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
@@ -7590,7 +7632,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="52"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -7607,7 +7649,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="52"/>
+      <c r="J48" s="56"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -7624,7 +7666,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="52"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
@@ -7641,7 +7683,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="52"/>
+      <c r="J50" s="56"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -7658,7 +7700,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="52"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -7675,7 +7717,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="52"/>
+      <c r="J52" s="56"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -7692,7 +7734,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="52"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -7709,7 +7751,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="52"/>
+      <c r="J54" s="56"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -7726,7 +7768,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="52"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -7743,7 +7785,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="52"/>
+      <c r="J56" s="56"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -7760,7 +7802,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="52"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -7777,7 +7819,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="52"/>
+      <c r="J58" s="56"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -7794,7 +7836,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="52"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
@@ -7811,7 +7853,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="52"/>
+      <c r="J60" s="56"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
@@ -7828,7 +7870,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="52"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -7845,7 +7887,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="52"/>
+      <c r="J62" s="56"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -7862,7 +7904,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="52"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -7879,7 +7921,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="52"/>
+      <c r="J64" s="56"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
@@ -7896,7 +7938,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="52"/>
+      <c r="J65" s="56"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -7913,7 +7955,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="52"/>
+      <c r="J66" s="56"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
@@ -7930,7 +7972,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="52"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -7947,7 +7989,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="52"/>
+      <c r="J68" s="56"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
@@ -7964,7 +8006,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="52"/>
+      <c r="J69" s="56"/>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -7981,7 +8023,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="52"/>
+      <c r="J70" s="56"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
@@ -7998,7 +8040,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="52"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -8015,7 +8057,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="52"/>
+      <c r="J72" s="56"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -8032,7 +8074,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="52"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -8049,7 +8091,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="52"/>
+      <c r="J74" s="56"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -8066,7 +8108,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="52"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -8083,7 +8125,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="52"/>
+      <c r="J76" s="56"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -8100,7 +8142,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="52"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -8117,7 +8159,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="52"/>
+      <c r="J78" s="56"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -8134,7 +8176,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="52"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -8151,7 +8193,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="52"/>
+      <c r="J80" s="56"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -8168,7 +8210,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="52"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -8185,7 +8227,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="52"/>
+      <c r="J82" s="56"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -8202,7 +8244,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="52"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -8219,7 +8261,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="52"/>
+      <c r="J84" s="56"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -8236,7 +8278,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="52"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -8253,7 +8295,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="52"/>
+      <c r="J86" s="56"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -8270,7 +8312,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="52"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -8287,7 +8329,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="52"/>
+      <c r="J88" s="56"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -8304,7 +8346,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="52"/>
+      <c r="J89" s="56"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -8321,7 +8363,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="52"/>
+      <c r="J90" s="56"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -8338,7 +8380,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="52"/>
+      <c r="J91" s="56"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -8355,7 +8397,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="52"/>
+      <c r="J92" s="56"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -8372,7 +8414,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="52"/>
+      <c r="J93" s="56"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -8389,7 +8431,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="52"/>
+      <c r="J94" s="56"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -8406,7 +8448,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="52"/>
+      <c r="J95" s="56"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -8423,7 +8465,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="52"/>
+      <c r="J96" s="56"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -8440,7 +8482,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="52"/>
+      <c r="J97" s="56"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -8457,7 +8499,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="52"/>
+      <c r="J98" s="56"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -8474,7 +8516,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="52"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -8491,7 +8533,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="52"/>
+      <c r="J100" s="56"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -8508,7 +8550,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="52"/>
+      <c r="J101" s="56"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -8525,7 +8567,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="52"/>
+      <c r="J102" s="56"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -8542,7 +8584,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="52"/>
+      <c r="J103" s="56"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -8559,7 +8601,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="52"/>
+      <c r="J104" s="56"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -8576,7 +8618,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="52"/>
+      <c r="J105" s="56"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -8593,7 +8635,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="52"/>
+      <c r="J106" s="56"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -8610,7 +8652,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="52"/>
+      <c r="J107" s="56"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -8627,7 +8669,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="52"/>
+      <c r="J108" s="56"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -8644,7 +8686,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="52"/>
+      <c r="J109" s="56"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -8661,7 +8703,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="52"/>
+      <c r="J110" s="56"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -8678,7 +8720,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="52"/>
+      <c r="J111" s="56"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -8695,7 +8737,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="52"/>
+      <c r="J112" s="56"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -8712,7 +8754,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="52"/>
+      <c r="J113" s="56"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -8729,7 +8771,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="52"/>
+      <c r="J114" s="56"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -8746,7 +8788,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="52"/>
+      <c r="J115" s="56"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -8763,7 +8805,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="52"/>
+      <c r="J116" s="56"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -8780,7 +8822,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="52"/>
+      <c r="J117" s="56"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -8797,7 +8839,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="52"/>
+      <c r="J118" s="56"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -8814,7 +8856,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="52"/>
+      <c r="J119" s="56"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -8831,7 +8873,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="52"/>
+      <c r="J120" s="56"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -8848,7 +8890,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="52"/>
+      <c r="J121" s="56"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -8865,7 +8907,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="52"/>
+      <c r="J122" s="56"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -8882,7 +8924,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="52"/>
+      <c r="J123" s="56"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -8899,7 +8941,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="52"/>
+      <c r="J124" s="56"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -8916,7 +8958,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="52"/>
+      <c r="J125" s="56"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -8933,7 +8975,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="52"/>
+      <c r="J126" s="56"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -8950,7 +8992,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="52"/>
+      <c r="J127" s="56"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -8967,7 +9009,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="52"/>
+      <c r="J128" s="56"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -8984,7 +9026,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="52"/>
+      <c r="J129" s="56"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -9001,7 +9043,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="52"/>
+      <c r="J130" s="56"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -9018,7 +9060,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="52"/>
+      <c r="J131" s="56"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -9035,7 +9077,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="52"/>
+      <c r="J132" s="56"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -9052,7 +9094,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="52"/>
+      <c r="J133" s="56"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -9069,7 +9111,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="52"/>
+      <c r="J134" s="56"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -9086,7 +9128,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="52"/>
+      <c r="J135" s="56"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -9103,7 +9145,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="52"/>
+      <c r="J136" s="56"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -9120,7 +9162,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="52"/>
+      <c r="J137" s="56"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -9137,7 +9179,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="52"/>
+      <c r="J138" s="56"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -9154,7 +9196,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="52"/>
+      <c r="J139" s="56"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -9171,7 +9213,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="52"/>
+      <c r="J140" s="56"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -9188,7 +9230,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="52"/>
+      <c r="J141" s="56"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -9205,7 +9247,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="52"/>
+      <c r="J142" s="56"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -9222,7 +9264,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="52"/>
+      <c r="J143" s="56"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -9239,7 +9281,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="52"/>
+      <c r="J144" s="56"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -9256,7 +9298,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="52"/>
+      <c r="J145" s="56"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -9273,7 +9315,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="52"/>
+      <c r="J146" s="56"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -9290,7 +9332,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="52"/>
+      <c r="J147" s="56"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -9307,7 +9349,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="52"/>
+      <c r="J148" s="56"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -9324,7 +9366,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="52"/>
+      <c r="J149" s="56"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -9341,7 +9383,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="52"/>
+      <c r="J150" s="56"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -9358,7 +9400,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="52"/>
+      <c r="J151" s="56"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -9375,7 +9417,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="52"/>
+      <c r="J152" s="56"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -9392,7 +9434,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="52"/>
+      <c r="J153" s="56"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
@@ -9409,7 +9451,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="52"/>
+      <c r="J154" s="56"/>
       <c r="K154" s="22"/>
       <c r="L154" s="23"/>
       <c r="M154" s="21"/>
@@ -9426,7 +9468,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="52"/>
+      <c r="J155" s="56"/>
       <c r="K155" s="22"/>
       <c r="L155" s="23"/>
       <c r="M155" s="21"/>
@@ -9443,7 +9485,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="52"/>
+      <c r="J156" s="56"/>
       <c r="K156" s="22"/>
       <c r="L156" s="23"/>
       <c r="M156" s="21"/>
@@ -9460,7 +9502,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="52"/>
+      <c r="J157" s="56"/>
       <c r="K157" s="22"/>
       <c r="L157" s="23"/>
       <c r="M157" s="21"/>
@@ -9477,7 +9519,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="52"/>
+      <c r="J158" s="56"/>
       <c r="K158" s="22"/>
       <c r="L158" s="23"/>
       <c r="M158" s="21"/>
@@ -9494,7 +9536,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="52"/>
+      <c r="J159" s="56"/>
       <c r="K159" s="22"/>
       <c r="L159" s="23"/>
       <c r="M159" s="21"/>
@@ -9511,7 +9553,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="52"/>
+      <c r="J160" s="56"/>
       <c r="K160" s="22"/>
       <c r="L160" s="23"/>
       <c r="M160" s="21"/>
@@ -9528,7 +9570,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="52"/>
+      <c r="J161" s="56"/>
       <c r="K161" s="22"/>
       <c r="L161" s="23"/>
       <c r="M161" s="21"/>
@@ -9545,7 +9587,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="52"/>
+      <c r="J162" s="56"/>
       <c r="K162" s="22"/>
       <c r="L162" s="23"/>
       <c r="M162" s="21"/>
@@ -9562,7 +9604,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="52"/>
+      <c r="J163" s="56"/>
       <c r="K163" s="22"/>
       <c r="L163" s="23"/>
       <c r="M163" s="21"/>
@@ -9579,7 +9621,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="52"/>
+      <c r="J164" s="56"/>
       <c r="K164" s="22"/>
       <c r="L164" s="23"/>
       <c r="M164" s="21"/>
@@ -9596,7 +9638,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="52"/>
+      <c r="J165" s="56"/>
       <c r="K165" s="22"/>
       <c r="L165" s="23"/>
       <c r="M165" s="21"/>
@@ -9613,7 +9655,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="52"/>
+      <c r="J166" s="56"/>
       <c r="K166" s="22"/>
       <c r="L166" s="23"/>
       <c r="M166" s="21"/>
@@ -9630,7 +9672,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="52"/>
+      <c r="J167" s="56"/>
       <c r="K167" s="22"/>
       <c r="L167" s="23"/>
       <c r="M167" s="21"/>
@@ -9647,7 +9689,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="52"/>
+      <c r="J168" s="56"/>
       <c r="K168" s="22"/>
       <c r="L168" s="23"/>
       <c r="M168" s="21"/>
@@ -9710,10 +9752,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -9757,14 +9799,14 @@
       <c r="I1" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="22"/>
       <c r="L1" s="14" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="15" t="s">
@@ -9778,12 +9820,12 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="19"/>
@@ -9795,7 +9837,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
       <c r="M3" s="21"/>
@@ -9830,10 +9872,10 @@
       <c r="I4" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="50" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="24" t="s">
         <v>743</v>
       </c>
@@ -9869,12 +9911,12 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="49"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A6" s="19"/>
@@ -9894,12 +9936,12 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="49"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A7" s="19"/>
@@ -9919,7 +9961,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
       <c r="M7" s="21"/>
@@ -9944,7 +9986,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="21"/>
@@ -9969,7 +10011,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="52"/>
+      <c r="J9" s="56"/>
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
       <c r="M9" s="21"/>
@@ -9994,7 +10036,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="52"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
       <c r="M10" s="21"/>
@@ -10021,7 +10063,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="52"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
       <c r="M11" s="21"/>
@@ -10046,18 +10088,18 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="52"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
       <c r="M12" s="21"/>
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="13" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
       <c r="A13" s="19" t="s">
         <v>770</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="30" t="s">
         <v>771</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -10069,13 +10111,13 @@
       <c r="E13" s="27" t="s">
         <v>772</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>773</v>
+      <c r="F13" s="28">
+        <v>5000</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="52"/>
+      <c r="J13" s="56"/>
       <c r="K13" s="22"/>
       <c r="L13" s="23"/>
       <c r="M13" s="21"/>
@@ -10084,25 +10126,23 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>776</v>
-      </c>
+      <c r="D14" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="52"/>
+      <c r="J14" s="56"/>
       <c r="K14" s="22"/>
       <c r="L14" s="23"/>
       <c r="M14" s="21"/>
@@ -10111,25 +10151,23 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>779</v>
-      </c>
+      <c r="D15" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="52"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="22"/>
       <c r="L15" s="23"/>
       <c r="M15" s="21"/>
@@ -10137,26 +10175,28 @@
       <c r="O15" s="22"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>782</v>
+      <c r="D16" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>777</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="52"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="22"/>
       <c r="L16" s="23"/>
       <c r="M16" s="21"/>
@@ -10165,23 +10205,25 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>784</v>
+      <c r="B17" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>780</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="52"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="22"/>
       <c r="L17" s="23"/>
       <c r="M17" s="21"/>
@@ -10190,8 +10232,8 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>785</v>
+      <c r="B18" s="30" t="s">
+        <v>781</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10200,15 +10242,15 @@
         <v>707</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>787</v>
+        <v>782</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="52"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="22"/>
       <c r="L18" s="23"/>
       <c r="M18" s="21"/>
@@ -10216,26 +10258,26 @@
       <c r="O18" s="22"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="37" t="s">
-        <v>788</v>
-      </c>
+      <c r="A19" s="19"/>
       <c r="B19" s="20" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>363</v>
+        <v>692</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F19" s="27"/>
+        <v>785</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>786</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="52"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="22"/>
       <c r="L19" s="23"/>
       <c r="M19" s="21"/>
@@ -10243,26 +10285,26 @@
       <c r="O19" s="22"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="37" t="s">
-        <v>790</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>792</v>
-      </c>
-      <c r="F20" s="34"/>
+      <c r="D20" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>789</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="52"/>
+      <c r="J20" s="56"/>
       <c r="K20" s="22"/>
       <c r="L20" s="23"/>
       <c r="M20" s="21"/>
@@ -10271,50 +10313,52 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="19"/>
-      <c r="B21" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
+      <c r="D21" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>792</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="52"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="22"/>
       <c r="L21" s="23"/>
       <c r="M21" s="21"/>
       <c r="N21" s="23"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="37" customHeight="1" spans="1:15">
-      <c r="A22" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>795</v>
+    <row r="22" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>793</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="F22" s="28">
-        <v>5000</v>
+        <v>794</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>795</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="52"/>
+      <c r="J22" s="56"/>
       <c r="K22" s="22"/>
       <c r="L22" s="23"/>
       <c r="M22" s="21"/>
@@ -10323,23 +10367,25 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="19"/>
-      <c r="B23" s="30" t="s">
-        <v>763</v>
+      <c r="B23" s="20" t="s">
+        <v>796</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>253</v>
+        <v>707</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="F23" s="28"/>
+        <v>797</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>798</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="52"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="22"/>
       <c r="L23" s="23"/>
       <c r="M23" s="21"/>
@@ -10348,23 +10394,23 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="19"/>
-      <c r="B24" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F24" s="28"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>800</v>
+      </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="52"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
       <c r="M24" s="21"/>
@@ -10372,55 +10418,55 @@
       <c r="O24" s="22"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A25" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>774</v>
-      </c>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>776</v>
+      <c r="D25" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>802</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>803</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="52"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="22"/>
       <c r="L25" s="23"/>
       <c r="M25" s="21"/>
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="C26" s="32" t="s">
+    <row r="26" s="1" customFormat="1" ht="88" customHeight="1" spans="1:15">
+      <c r="A26" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>692</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>779</v>
+      <c r="D26" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="F26" s="28">
+        <v>3000</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="52"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="22"/>
       <c r="L26" s="23"/>
       <c r="M26" s="21"/>
@@ -10429,25 +10475,25 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
-      <c r="B27" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>801</v>
+      <c r="D27" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>777</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="52"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="22"/>
       <c r="L27" s="23"/>
       <c r="M27" s="21"/>
@@ -10456,25 +10502,25 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>692</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>804</v>
+      <c r="D28" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>780</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="52"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
       <c r="M28" s="21"/>
@@ -10483,25 +10529,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>707</v>
+      <c r="D29" s="33" t="s">
+        <v>476</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="52"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="22"/>
       <c r="L29" s="23"/>
       <c r="M29" s="21"/>
@@ -10509,26 +10555,28 @@
       <c r="O29" s="22"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="19" t="s">
+        <v>810</v>
+      </c>
       <c r="B30" s="20" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>707</v>
+        <v>576</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="52"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="22"/>
       <c r="L30" s="23"/>
       <c r="M30" s="21"/>
@@ -10537,25 +10585,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>813</v>
+      <c r="D31" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>777</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="52"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="22"/>
       <c r="L31" s="23"/>
       <c r="M31" s="21"/>
@@ -10564,25 +10612,25 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="F32" s="34" t="s">
         <v>780</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>782</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="52"/>
+      <c r="J32" s="56"/>
       <c r="K32" s="22"/>
       <c r="L32" s="23"/>
       <c r="M32" s="21"/>
@@ -10591,23 +10639,25 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>784</v>
+      <c r="B33" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>798</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="52"/>
+      <c r="J33" s="56"/>
       <c r="K33" s="22"/>
       <c r="L33" s="23"/>
       <c r="M33" s="21"/>
@@ -10616,110 +10666,103 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="19"/>
-      <c r="B34" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>787</v>
+      <c r="B34" s="20"/>
+      <c r="C34" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>800</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="52"/>
+      <c r="J34" s="56"/>
       <c r="K34" s="22"/>
       <c r="L34" s="23"/>
       <c r="M34" s="21"/>
       <c r="N34" s="23"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="35" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
       <c r="A35" s="37" t="s">
         <v>814</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>576</v>
+        <v>707</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="F35" s="28">
-        <v>3000</v>
+        <v>802</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>803</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="52"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="22"/>
       <c r="L35" s="23"/>
       <c r="M35" s="21"/>
       <c r="N35" s="23"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="19" t="s">
-        <v>817</v>
-      </c>
+    <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="2:15">
       <c r="B36" s="31" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>692</v>
+        <v>253</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>775</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>776</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="F36" s="34"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="52"/>
+      <c r="J36" s="56"/>
       <c r="K36" s="22"/>
       <c r="L36" s="23"/>
       <c r="M36" s="21"/>
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="19"/>
+    <row r="37" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A37" s="37" t="s">
+        <v>817</v>
+      </c>
       <c r="B37" s="31" t="s">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>779</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="F37" s="34"/>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="52"/>
+      <c r="J37" s="56"/>
       <c r="K37" s="22"/>
       <c r="L37" s="23"/>
       <c r="M37" s="21"/>
@@ -10727,28 +10770,22 @@
       <c r="O37" s="22"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A38" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="C38" s="26" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>801</v>
-      </c>
+      <c r="D38" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="52"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="22"/>
       <c r="L38" s="23"/>
       <c r="M38" s="21"/>
@@ -10756,26 +10793,28 @@
       <c r="O38" s="22"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>804</v>
+      <c r="E39" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>777</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="52"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="22"/>
       <c r="L39" s="23"/>
       <c r="M39" s="21"/>
@@ -10784,25 +10823,25 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="19"/>
-      <c r="B40" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="C40" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>807</v>
+      <c r="D40" s="33" t="s">
+        <v>692</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>780</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="52"/>
+      <c r="J40" s="56"/>
       <c r="K40" s="22"/>
       <c r="L40" s="23"/>
       <c r="M40" s="21"/>
@@ -10810,9 +10849,11 @@
       <c r="O40" s="22"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20" t="s">
-        <v>808</v>
+      <c r="A41" s="19" t="s">
+        <v>822</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>781</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -10821,15 +10862,15 @@
         <v>707</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>810</v>
+        <v>782</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="52"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="22"/>
       <c r="L41" s="23"/>
       <c r="M41" s="21"/>
@@ -10839,24 +10880,24 @@
     <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="19"/>
       <c r="B42" s="20" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="52"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="22"/>
       <c r="L42" s="23"/>
       <c r="M42" s="21"/>
@@ -10866,7 +10907,7 @@
     <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="19"/>
       <c r="B43" s="20" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -10875,15 +10916,15 @@
         <v>707</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="52"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="22"/>
       <c r="L43" s="23"/>
       <c r="M43" s="21"/>
@@ -10892,23 +10933,25 @@
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>656</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>784</v>
+      <c r="B44" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>792</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="52"/>
+      <c r="J44" s="56"/>
       <c r="K44" s="22"/>
       <c r="L44" s="23"/>
       <c r="M44" s="21"/>
@@ -10918,7 +10961,7 @@
     <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="19"/>
       <c r="B45" s="20" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
@@ -10927,15 +10970,15 @@
         <v>707</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="52"/>
+      <c r="J45" s="56"/>
       <c r="K45" s="22"/>
       <c r="L45" s="23"/>
       <c r="M45" s="21"/>
@@ -10945,47 +10988,49 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="19"/>
       <c r="B46" s="20" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F46" s="27"/>
+        <v>797</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>798</v>
+      </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="52"/>
+      <c r="J46" s="56"/>
       <c r="K46" s="22"/>
       <c r="L46" s="23"/>
       <c r="M46" s="21"/>
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
+    <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="F47" s="27"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>800</v>
+      </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="52"/>
+      <c r="J47" s="56"/>
       <c r="K47" s="22"/>
       <c r="L47" s="23"/>
       <c r="M47" s="21"/>
@@ -10995,22 +11040,24 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>363</v>
+        <v>707</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="F48" s="27"/>
+        <v>802</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>803</v>
+      </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="52"/>
+      <c r="J48" s="56"/>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="21"/>
@@ -11020,7 +11067,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
@@ -11029,40 +11076,38 @@
         <v>363</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="52"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="22"/>
       <c r="L49" s="23"/>
       <c r="M49" s="21"/>
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>827</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>828</v>
-      </c>
+      <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="52"/>
+      <c r="J50" s="56"/>
       <c r="K50" s="22"/>
       <c r="L50" s="23"/>
       <c r="M50" s="21"/>
@@ -11071,25 +11116,23 @@
     </row>
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
-      <c r="B51" s="38" t="s">
-        <v>829</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>830</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>831</v>
-      </c>
+      <c r="B51" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="52"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="22"/>
       <c r="L51" s="23"/>
       <c r="M51" s="21"/>
@@ -11098,25 +11141,23 @@
     </row>
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
-      <c r="B52" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>833</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>834</v>
-      </c>
+      <c r="B52" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>829</v>
+      </c>
+      <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="52"/>
+      <c r="J52" s="56"/>
       <c r="K52" s="22"/>
       <c r="L52" s="23"/>
       <c r="M52" s="21"/>
@@ -11124,26 +11165,26 @@
       <c r="O52" s="22"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A53" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="C53" s="26" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="41" t="s">
+        <v>830</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="F53" s="27"/>
+      <c r="D53" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>832</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="52"/>
+      <c r="J53" s="56"/>
       <c r="K53" s="22"/>
       <c r="L53" s="23"/>
       <c r="M53" s="21"/>
@@ -11152,25 +11193,25 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
-      <c r="B54" s="20" t="s">
-        <v>838</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>840</v>
+      <c r="B54" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>835</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="52"/>
+      <c r="J54" s="56"/>
       <c r="K54" s="22"/>
       <c r="L54" s="23"/>
       <c r="M54" s="21"/>
@@ -11179,23 +11220,25 @@
     </row>
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
-      <c r="B55" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="F55" s="27"/>
+      <c r="B55" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>838</v>
+      </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="52"/>
+      <c r="J55" s="56"/>
       <c r="K55" s="22"/>
       <c r="L55" s="23"/>
       <c r="M55" s="21"/>
@@ -11204,27 +11247,25 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="F56" s="28">
-        <v>3000</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="52"/>
+      <c r="J56" s="56"/>
       <c r="K56" s="22"/>
       <c r="L56" s="23"/>
       <c r="M56" s="21"/>
@@ -11232,28 +11273,26 @@
       <c r="O56" s="22"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="37" t="s">
-        <v>845</v>
-      </c>
+      <c r="A57" s="19"/>
       <c r="B57" s="20" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="52"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="22"/>
       <c r="L57" s="23"/>
       <c r="M57" s="21"/>
@@ -11263,24 +11302,22 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>850</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>851</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="52"/>
+      <c r="J58" s="56"/>
       <c r="K58" s="22"/>
       <c r="L58" s="23"/>
       <c r="M58" s="21"/>
@@ -11288,76 +11325,84 @@
       <c r="O58" s="22"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>465</v>
+      <c r="A59" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>576</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>853</v>
+        <v>772</v>
+      </c>
+      <c r="F59" s="28">
+        <v>3000</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="52"/>
+      <c r="J59" s="56"/>
       <c r="K59" s="22"/>
       <c r="L59" s="23"/>
       <c r="M59" s="21"/>
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" s="36" t="s">
-        <v>854</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>855</v>
-      </c>
+    <row r="60" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
+      <c r="A60" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="52"/>
+      <c r="J60" s="56"/>
       <c r="K60" s="22"/>
       <c r="L60" s="23"/>
       <c r="M60" s="21"/>
       <c r="N60" s="23"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="19"/>
+    <row r="61" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A61" s="42" t="s">
+        <v>850</v>
+      </c>
       <c r="B61" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E61" s="36" t="s">
-        <v>850</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>787</v>
+        <v>851</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>853</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="52"/>
+      <c r="J61" s="56"/>
       <c r="K61" s="22"/>
       <c r="L61" s="23"/>
       <c r="M61" s="21"/>
@@ -11367,24 +11412,24 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>858</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>859</v>
+        <v>854</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>856</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="52"/>
+      <c r="J62" s="56"/>
       <c r="K62" s="22"/>
       <c r="L62" s="23"/>
       <c r="M62" s="21"/>
@@ -11393,25 +11438,23 @@
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
-      <c r="B63" s="20" t="s">
-        <v>860</v>
-      </c>
-      <c r="C63" s="26" t="s">
+      <c r="B63" s="20"/>
+      <c r="C63" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>49</v>
+      <c r="D63" s="36" t="s">
+        <v>465</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="52"/>
+      <c r="J63" s="56"/>
       <c r="K63" s="22"/>
       <c r="L63" s="23"/>
       <c r="M63" s="21"/>
@@ -11420,49 +11463,50 @@
     </row>
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="19"/>
-      <c r="B64" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E64" s="27" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="27" t="s">
+        <v>860</v>
+      </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
+      <c r="J64" s="56"/>
       <c r="K64" s="22"/>
       <c r="L64" s="23"/>
       <c r="M64" s="21"/>
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="F65" s="27"/>
+        <v>861</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="E65" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>803</v>
+      </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="1" t="s">
-        <v>865</v>
-      </c>
+      <c r="J65" s="56"/>
       <c r="K65" s="22"/>
       <c r="L65" s="23"/>
       <c r="M65" s="21"/>
@@ -11472,7 +11516,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11481,42 +11525,42 @@
         <v>493</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="52"/>
+      <c r="J66" s="56"/>
       <c r="K66" s="22"/>
       <c r="L66" s="23"/>
       <c r="M66" s="21"/>
       <c r="N66" s="23"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
+    <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="C67" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E67" s="33" t="s">
-        <v>861</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>869</v>
+      <c r="E67" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>867</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="52"/>
+      <c r="J67" s="56"/>
       <c r="K67" s="22"/>
       <c r="L67" s="23"/>
       <c r="M67" s="21"/>
@@ -11526,49 +11570,48 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>707</v>
+        <v>363</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>871</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>807</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="52"/>
       <c r="K68" s="22"/>
       <c r="L68" s="23"/>
       <c r="M68" s="21"/>
       <c r="N68" s="23"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="69" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>363</v>
+        <v>536</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="52"/>
+      <c r="J69" s="1" t="s">
+        <v>870</v>
+      </c>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
       <c r="M69" s="21"/>
@@ -11577,50 +11620,52 @@
     </row>
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="32" t="s">
+      <c r="B70" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="E70" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>875</v>
+      <c r="E70" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>872</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="52"/>
+      <c r="J70" s="56"/>
       <c r="K70" s="22"/>
       <c r="L70" s="23"/>
       <c r="M70" s="21"/>
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
-      <c r="B71" s="38" t="s">
-        <v>829</v>
+      <c r="B71" s="20" t="s">
+        <v>873</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="52"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="22"/>
       <c r="L71" s="23"/>
       <c r="M71" s="21"/>
@@ -11629,25 +11674,25 @@
     </row>
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
-      <c r="B72" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>878</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>879</v>
+      <c r="B72" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>876</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>789</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="52"/>
+      <c r="J72" s="56"/>
       <c r="K72" s="22"/>
       <c r="L72" s="23"/>
       <c r="M72" s="21"/>
@@ -11655,26 +11700,24 @@
       <c r="O72" s="22"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="53" t="s">
-        <v>880</v>
-      </c>
-      <c r="B73" s="54" t="s">
-        <v>881</v>
-      </c>
-      <c r="C73" s="55" t="s">
+      <c r="A73" s="19"/>
+      <c r="B73" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="C73" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="56" t="s">
+      <c r="D73" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="E73" s="56" t="s">
-        <v>882</v>
+      <c r="E73" s="27" t="s">
+        <v>878</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="52"/>
+      <c r="J73" s="56"/>
       <c r="K73" s="22"/>
       <c r="L73" s="23"/>
       <c r="M73" s="21"/>
@@ -11683,15 +11726,23 @@
     </row>
     <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>880</v>
+      </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="52"/>
+      <c r="J74" s="56"/>
       <c r="K74" s="22"/>
       <c r="L74" s="23"/>
       <c r="M74" s="21"/>
@@ -11700,15 +11751,25 @@
     </row>
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
+      <c r="B75" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>882</v>
+      </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
-      <c r="J75" s="52"/>
+      <c r="J75" s="56"/>
       <c r="K75" s="22"/>
       <c r="L75" s="23"/>
       <c r="M75" s="21"/>
@@ -11717,15 +11778,25 @@
     </row>
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="B76" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>884</v>
+      </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="52"/>
+      <c r="J76" s="56"/>
       <c r="K76" s="22"/>
       <c r="L76" s="23"/>
       <c r="M76" s="21"/>
@@ -11733,16 +11804,26 @@
       <c r="O76" s="22"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="A77" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>886</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>887</v>
+      </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="52"/>
+      <c r="J77" s="56"/>
       <c r="K77" s="22"/>
       <c r="L77" s="23"/>
       <c r="M77" s="21"/>
@@ -11759,7 +11840,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="52"/>
+      <c r="J78" s="56"/>
       <c r="K78" s="22"/>
       <c r="L78" s="23"/>
       <c r="M78" s="21"/>
@@ -11776,7 +11857,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="52"/>
+      <c r="J79" s="56"/>
       <c r="K79" s="22"/>
       <c r="L79" s="23"/>
       <c r="M79" s="21"/>
@@ -11793,7 +11874,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="52"/>
+      <c r="J80" s="56"/>
       <c r="K80" s="22"/>
       <c r="L80" s="23"/>
       <c r="M80" s="21"/>
@@ -11810,7 +11891,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="52"/>
+      <c r="J81" s="56"/>
       <c r="K81" s="22"/>
       <c r="L81" s="23"/>
       <c r="M81" s="21"/>
@@ -11827,7 +11908,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="52"/>
+      <c r="J82" s="56"/>
       <c r="K82" s="22"/>
       <c r="L82" s="23"/>
       <c r="M82" s="21"/>
@@ -11844,7 +11925,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="52"/>
+      <c r="J83" s="56"/>
       <c r="K83" s="22"/>
       <c r="L83" s="23"/>
       <c r="M83" s="21"/>
@@ -11861,7 +11942,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="52"/>
+      <c r="J84" s="56"/>
       <c r="K84" s="22"/>
       <c r="L84" s="23"/>
       <c r="M84" s="21"/>
@@ -11878,7 +11959,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="52"/>
+      <c r="J85" s="56"/>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
       <c r="M85" s="21"/>
@@ -11895,7 +11976,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="52"/>
+      <c r="J86" s="56"/>
       <c r="K86" s="22"/>
       <c r="L86" s="23"/>
       <c r="M86" s="21"/>
@@ -11912,7 +11993,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="52"/>
+      <c r="J87" s="56"/>
       <c r="K87" s="22"/>
       <c r="L87" s="23"/>
       <c r="M87" s="21"/>
@@ -11929,7 +12010,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="52"/>
+      <c r="J88" s="56"/>
       <c r="K88" s="22"/>
       <c r="L88" s="23"/>
       <c r="M88" s="21"/>
@@ -11946,7 +12027,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="52"/>
+      <c r="J89" s="56"/>
       <c r="K89" s="22"/>
       <c r="L89" s="23"/>
       <c r="M89" s="21"/>
@@ -11963,7 +12044,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="52"/>
+      <c r="J90" s="56"/>
       <c r="K90" s="22"/>
       <c r="L90" s="23"/>
       <c r="M90" s="21"/>
@@ -11980,7 +12061,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="52"/>
+      <c r="J91" s="56"/>
       <c r="K91" s="22"/>
       <c r="L91" s="23"/>
       <c r="M91" s="21"/>
@@ -11997,7 +12078,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="52"/>
+      <c r="J92" s="56"/>
       <c r="K92" s="22"/>
       <c r="L92" s="23"/>
       <c r="M92" s="21"/>
@@ -12014,7 +12095,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="52"/>
+      <c r="J93" s="56"/>
       <c r="K93" s="22"/>
       <c r="L93" s="23"/>
       <c r="M93" s="21"/>
@@ -12031,7 +12112,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="52"/>
+      <c r="J94" s="56"/>
       <c r="K94" s="22"/>
       <c r="L94" s="23"/>
       <c r="M94" s="21"/>
@@ -12048,7 +12129,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="52"/>
+      <c r="J95" s="56"/>
       <c r="K95" s="22"/>
       <c r="L95" s="23"/>
       <c r="M95" s="21"/>
@@ -12065,7 +12146,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="52"/>
+      <c r="J96" s="56"/>
       <c r="K96" s="22"/>
       <c r="L96" s="23"/>
       <c r="M96" s="21"/>
@@ -12082,7 +12163,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="52"/>
+      <c r="J97" s="56"/>
       <c r="K97" s="22"/>
       <c r="L97" s="23"/>
       <c r="M97" s="21"/>
@@ -12099,7 +12180,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="52"/>
+      <c r="J98" s="56"/>
       <c r="K98" s="22"/>
       <c r="L98" s="23"/>
       <c r="M98" s="21"/>
@@ -12116,7 +12197,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="52"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="22"/>
       <c r="L99" s="23"/>
       <c r="M99" s="21"/>
@@ -12133,7 +12214,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="52"/>
+      <c r="J100" s="56"/>
       <c r="K100" s="22"/>
       <c r="L100" s="23"/>
       <c r="M100" s="21"/>
@@ -12150,7 +12231,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="52"/>
+      <c r="J101" s="56"/>
       <c r="K101" s="22"/>
       <c r="L101" s="23"/>
       <c r="M101" s="21"/>
@@ -12167,7 +12248,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="52"/>
+      <c r="J102" s="56"/>
       <c r="K102" s="22"/>
       <c r="L102" s="23"/>
       <c r="M102" s="21"/>
@@ -12184,7 +12265,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="52"/>
+      <c r="J103" s="56"/>
       <c r="K103" s="22"/>
       <c r="L103" s="23"/>
       <c r="M103" s="21"/>
@@ -12201,7 +12282,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="52"/>
+      <c r="J104" s="56"/>
       <c r="K104" s="22"/>
       <c r="L104" s="23"/>
       <c r="M104" s="21"/>
@@ -12218,7 +12299,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="52"/>
+      <c r="J105" s="56"/>
       <c r="K105" s="22"/>
       <c r="L105" s="23"/>
       <c r="M105" s="21"/>
@@ -12235,7 +12316,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="52"/>
+      <c r="J106" s="56"/>
       <c r="K106" s="22"/>
       <c r="L106" s="23"/>
       <c r="M106" s="21"/>
@@ -12252,7 +12333,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="52"/>
+      <c r="J107" s="56"/>
       <c r="K107" s="22"/>
       <c r="L107" s="23"/>
       <c r="M107" s="21"/>
@@ -12269,7 +12350,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="52"/>
+      <c r="J108" s="56"/>
       <c r="K108" s="22"/>
       <c r="L108" s="23"/>
       <c r="M108" s="21"/>
@@ -12286,7 +12367,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="52"/>
+      <c r="J109" s="56"/>
       <c r="K109" s="22"/>
       <c r="L109" s="23"/>
       <c r="M109" s="21"/>
@@ -12303,7 +12384,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="52"/>
+      <c r="J110" s="56"/>
       <c r="K110" s="22"/>
       <c r="L110" s="23"/>
       <c r="M110" s="21"/>
@@ -12320,7 +12401,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="52"/>
+      <c r="J111" s="56"/>
       <c r="K111" s="22"/>
       <c r="L111" s="23"/>
       <c r="M111" s="21"/>
@@ -12337,7 +12418,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="52"/>
+      <c r="J112" s="56"/>
       <c r="K112" s="22"/>
       <c r="L112" s="23"/>
       <c r="M112" s="21"/>
@@ -12354,7 +12435,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="52"/>
+      <c r="J113" s="56"/>
       <c r="K113" s="22"/>
       <c r="L113" s="23"/>
       <c r="M113" s="21"/>
@@ -12371,7 +12452,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="52"/>
+      <c r="J114" s="56"/>
       <c r="K114" s="22"/>
       <c r="L114" s="23"/>
       <c r="M114" s="21"/>
@@ -12388,7 +12469,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="52"/>
+      <c r="J115" s="56"/>
       <c r="K115" s="22"/>
       <c r="L115" s="23"/>
       <c r="M115" s="21"/>
@@ -12405,7 +12486,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="52"/>
+      <c r="J116" s="56"/>
       <c r="K116" s="22"/>
       <c r="L116" s="23"/>
       <c r="M116" s="21"/>
@@ -12422,7 +12503,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="52"/>
+      <c r="J117" s="56"/>
       <c r="K117" s="22"/>
       <c r="L117" s="23"/>
       <c r="M117" s="21"/>
@@ -12439,7 +12520,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="52"/>
+      <c r="J118" s="56"/>
       <c r="K118" s="22"/>
       <c r="L118" s="23"/>
       <c r="M118" s="21"/>
@@ -12456,7 +12537,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="52"/>
+      <c r="J119" s="56"/>
       <c r="K119" s="22"/>
       <c r="L119" s="23"/>
       <c r="M119" s="21"/>
@@ -12473,7 +12554,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="52"/>
+      <c r="J120" s="56"/>
       <c r="K120" s="22"/>
       <c r="L120" s="23"/>
       <c r="M120" s="21"/>
@@ -12490,7 +12571,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
-      <c r="J121" s="52"/>
+      <c r="J121" s="56"/>
       <c r="K121" s="22"/>
       <c r="L121" s="23"/>
       <c r="M121" s="21"/>
@@ -12507,7 +12588,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="52"/>
+      <c r="J122" s="56"/>
       <c r="K122" s="22"/>
       <c r="L122" s="23"/>
       <c r="M122" s="21"/>
@@ -12524,7 +12605,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="52"/>
+      <c r="J123" s="56"/>
       <c r="K123" s="22"/>
       <c r="L123" s="23"/>
       <c r="M123" s="21"/>
@@ -12541,7 +12622,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
       <c r="I124" s="27"/>
-      <c r="J124" s="52"/>
+      <c r="J124" s="56"/>
       <c r="K124" s="22"/>
       <c r="L124" s="23"/>
       <c r="M124" s="21"/>
@@ -12558,7 +12639,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="52"/>
+      <c r="J125" s="56"/>
       <c r="K125" s="22"/>
       <c r="L125" s="23"/>
       <c r="M125" s="21"/>
@@ -12575,7 +12656,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="52"/>
+      <c r="J126" s="56"/>
       <c r="K126" s="22"/>
       <c r="L126" s="23"/>
       <c r="M126" s="21"/>
@@ -12592,7 +12673,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="52"/>
+      <c r="J127" s="56"/>
       <c r="K127" s="22"/>
       <c r="L127" s="23"/>
       <c r="M127" s="21"/>
@@ -12609,7 +12690,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
       <c r="I128" s="27"/>
-      <c r="J128" s="52"/>
+      <c r="J128" s="56"/>
       <c r="K128" s="22"/>
       <c r="L128" s="23"/>
       <c r="M128" s="21"/>
@@ -12626,7 +12707,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
       <c r="I129" s="27"/>
-      <c r="J129" s="52"/>
+      <c r="J129" s="56"/>
       <c r="K129" s="22"/>
       <c r="L129" s="23"/>
       <c r="M129" s="21"/>
@@ -12643,7 +12724,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
       <c r="I130" s="27"/>
-      <c r="J130" s="52"/>
+      <c r="J130" s="56"/>
       <c r="K130" s="22"/>
       <c r="L130" s="23"/>
       <c r="M130" s="21"/>
@@ -12660,7 +12741,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
       <c r="I131" s="27"/>
-      <c r="J131" s="52"/>
+      <c r="J131" s="56"/>
       <c r="K131" s="22"/>
       <c r="L131" s="23"/>
       <c r="M131" s="21"/>
@@ -12677,7 +12758,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
       <c r="I132" s="27"/>
-      <c r="J132" s="52"/>
+      <c r="J132" s="56"/>
       <c r="K132" s="22"/>
       <c r="L132" s="23"/>
       <c r="M132" s="21"/>
@@ -12694,7 +12775,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
       <c r="I133" s="27"/>
-      <c r="J133" s="52"/>
+      <c r="J133" s="56"/>
       <c r="K133" s="22"/>
       <c r="L133" s="23"/>
       <c r="M133" s="21"/>
@@ -12711,7 +12792,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
       <c r="I134" s="27"/>
-      <c r="J134" s="52"/>
+      <c r="J134" s="56"/>
       <c r="K134" s="22"/>
       <c r="L134" s="23"/>
       <c r="M134" s="21"/>
@@ -12728,7 +12809,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
       <c r="I135" s="27"/>
-      <c r="J135" s="52"/>
+      <c r="J135" s="56"/>
       <c r="K135" s="22"/>
       <c r="L135" s="23"/>
       <c r="M135" s="21"/>
@@ -12745,7 +12826,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
       <c r="I136" s="27"/>
-      <c r="J136" s="52"/>
+      <c r="J136" s="56"/>
       <c r="K136" s="22"/>
       <c r="L136" s="23"/>
       <c r="M136" s="21"/>
@@ -12762,7 +12843,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
-      <c r="J137" s="52"/>
+      <c r="J137" s="56"/>
       <c r="K137" s="22"/>
       <c r="L137" s="23"/>
       <c r="M137" s="21"/>
@@ -12779,7 +12860,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
-      <c r="J138" s="52"/>
+      <c r="J138" s="56"/>
       <c r="K138" s="22"/>
       <c r="L138" s="23"/>
       <c r="M138" s="21"/>
@@ -12796,7 +12877,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
       <c r="I139" s="27"/>
-      <c r="J139" s="52"/>
+      <c r="J139" s="56"/>
       <c r="K139" s="22"/>
       <c r="L139" s="23"/>
       <c r="M139" s="21"/>
@@ -12813,7 +12894,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
       <c r="I140" s="27"/>
-      <c r="J140" s="52"/>
+      <c r="J140" s="56"/>
       <c r="K140" s="22"/>
       <c r="L140" s="23"/>
       <c r="M140" s="21"/>
@@ -12830,7 +12911,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
       <c r="I141" s="27"/>
-      <c r="J141" s="52"/>
+      <c r="J141" s="56"/>
       <c r="K141" s="22"/>
       <c r="L141" s="23"/>
       <c r="M141" s="21"/>
@@ -12847,7 +12928,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
       <c r="I142" s="27"/>
-      <c r="J142" s="52"/>
+      <c r="J142" s="56"/>
       <c r="K142" s="22"/>
       <c r="L142" s="23"/>
       <c r="M142" s="21"/>
@@ -12864,7 +12945,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
-      <c r="J143" s="52"/>
+      <c r="J143" s="56"/>
       <c r="K143" s="22"/>
       <c r="L143" s="23"/>
       <c r="M143" s="21"/>
@@ -12881,7 +12962,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
-      <c r="J144" s="52"/>
+      <c r="J144" s="56"/>
       <c r="K144" s="22"/>
       <c r="L144" s="23"/>
       <c r="M144" s="21"/>
@@ -12898,7 +12979,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
       <c r="I145" s="27"/>
-      <c r="J145" s="52"/>
+      <c r="J145" s="56"/>
       <c r="K145" s="22"/>
       <c r="L145" s="23"/>
       <c r="M145" s="21"/>
@@ -12915,7 +12996,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
       <c r="I146" s="27"/>
-      <c r="J146" s="52"/>
+      <c r="J146" s="56"/>
       <c r="K146" s="22"/>
       <c r="L146" s="23"/>
       <c r="M146" s="21"/>
@@ -12932,7 +13013,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
       <c r="I147" s="27"/>
-      <c r="J147" s="52"/>
+      <c r="J147" s="56"/>
       <c r="K147" s="22"/>
       <c r="L147" s="23"/>
       <c r="M147" s="21"/>
@@ -12949,7 +13030,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
       <c r="I148" s="27"/>
-      <c r="J148" s="52"/>
+      <c r="J148" s="56"/>
       <c r="K148" s="22"/>
       <c r="L148" s="23"/>
       <c r="M148" s="21"/>
@@ -12966,7 +13047,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="52"/>
+      <c r="J149" s="56"/>
       <c r="K149" s="22"/>
       <c r="L149" s="23"/>
       <c r="M149" s="21"/>
@@ -12983,7 +13064,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
       <c r="I150" s="27"/>
-      <c r="J150" s="52"/>
+      <c r="J150" s="56"/>
       <c r="K150" s="22"/>
       <c r="L150" s="23"/>
       <c r="M150" s="21"/>
@@ -13000,7 +13081,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="52"/>
+      <c r="J151" s="56"/>
       <c r="K151" s="22"/>
       <c r="L151" s="23"/>
       <c r="M151" s="21"/>
@@ -13017,7 +13098,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="52"/>
+      <c r="J152" s="56"/>
       <c r="K152" s="22"/>
       <c r="L152" s="23"/>
       <c r="M152" s="21"/>
@@ -13034,12 +13115,80 @@
       <c r="G153" s="27"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="52"/>
+      <c r="J153" s="56"/>
       <c r="K153" s="22"/>
       <c r="L153" s="23"/>
       <c r="M153" s="21"/>
       <c r="N153" s="23"/>
       <c r="O153" s="22"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="23"/>
+      <c r="O154" s="22"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="19"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="21"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="22"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="19"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="21"/>
+      <c r="N156" s="23"/>
+      <c r="O156" s="22"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="19"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="56"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="21"/>
+      <c r="N157" s="23"/>
+      <c r="O157" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13048,18 +13197,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N71:N153">
+  <conditionalFormatting sqref="N75:N157">
     <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N70">
+  <conditionalFormatting sqref="N1 N3:N74">
     <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -13071,10 +13220,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C23 C24 C25 C26 C27 C28 C32 C33 C34 C35 C36 C37 C38 C39 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C68 C69 C70 C71 C72 C7:C8 C20:C21 C29:C31 C40:C42 C53:C54 C63:C64 C73:C153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C23 C24 C25 C26 C30 C31 C32 C33 C34 C35 C36 C39 C40 C41 C42 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C58 C59 C60 C61 C62 C63 C64 C65 C66 C69 C70 C71 C72 C73 C74 C75 C76 C7:C8 C20:C22 C27:C29 C37:C38 C43:C45 C56:C57 C67:C68 C77:C157">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D22 D23 D24 D25 D26 D27 D28 D32 D33 D34 D35 D36 D37 D38 D39 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D61 D62 D65 D66 D67 D68 D69 D70 D71 D72 D7:D8 D20:D21 D29:D31 D40:D42 D53:D54 D63:D64 D73:D153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D23 D24 D25 D26 D30 D31 D32 D33 D34 D35 D36 D39 D40 D41 D42 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D58 D59 D60 D61 D62 D63 D64 D65 D66 D69 D70 D71 D72 D73 D74 D75 D76 D7:D8 D20:D22 D27:D29 D37:D38 D43:D45 D56:D57 D67:D68 D77:D157">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/UI-TransferNote.xlsx
+++ b/tests/artifact/script/UI-TransferNote.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="884">
   <si>
     <t>target</t>
   </si>
@@ -2477,9 +2477,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>If you click on Reset button then what should be verified after that?</t>
-  </si>
-  <si>
     <t>click on reset button</t>
   </si>
   <si>
@@ -2507,18 +2504,12 @@
     <t>3000</t>
   </si>
   <si>
-    <t>Where is the verification the item is added successfully?</t>
-  </si>
-  <si>
     <t>verify the Item section added or not after clicking addItem button</t>
   </si>
   <si>
     <t>${verify.addedItem}</t>
   </si>
   <si>
-    <t>Delete added Item section</t>
-  </si>
-  <si>
     <t>delete the selected Items field</t>
   </si>
   <si>
@@ -2610,9 +2601,6 @@
   </si>
   <si>
     <t>click on go back</t>
-  </si>
-  <si>
-    <t>If the test case is redirection to transfer note then why so many steps to return to that page</t>
   </si>
   <si>
     <t>Approve the created Transfernote</t>
@@ -9754,8 +9742,8 @@
   <sheetPr/>
   <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10445,11 +10433,9 @@
       <c r="O25" s="22"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="88" customHeight="1" spans="1:15">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="20" t="s">
         <v>804</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>805</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10458,7 +10444,7 @@
         <v>576</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F26" s="28">
         <v>3000</v>
@@ -10476,7 +10462,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="19"/>
       <c r="B27" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>30</v>
@@ -10503,7 +10489,7 @@
     <row r="28" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="19"/>
       <c r="B28" s="31" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>30</v>
@@ -10530,7 +10516,7 @@
     <row r="29" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="19"/>
       <c r="B29" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>30</v>
@@ -10556,10 +10542,10 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="19" t="s">
+        <v>809</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>810</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>811</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10568,10 +10554,10 @@
         <v>576</v>
       </c>
       <c r="E30" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>812</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>813</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -10690,9 +10676,7 @@
       <c r="O34" s="22"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A35" s="37" t="s">
-        <v>814</v>
-      </c>
+      <c r="A35" s="37"/>
       <c r="B35" s="20" t="s">
         <v>801</v>
       </c>
@@ -10720,7 +10704,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="35" customHeight="1" spans="2:15">
       <c r="B36" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>30</v>
@@ -10729,7 +10713,7 @@
         <v>253</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="27"/>
@@ -10743,11 +10727,9 @@
       <c r="O36" s="22"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
-      <c r="A37" s="37" t="s">
-        <v>817</v>
-      </c>
+      <c r="A37" s="37"/>
       <c r="B37" s="31" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C37" s="32" t="s">
         <v>30</v>
@@ -10756,7 +10738,7 @@
         <v>600</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="27"/>
@@ -10772,7 +10754,7 @@
     <row r="38" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="38" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>30</v>
@@ -10794,7 +10776,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>775</v>
@@ -10850,7 +10832,7 @@
     </row>
     <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="19" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>781</v>
@@ -11067,7 +11049,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="19"/>
       <c r="B49" s="20" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
@@ -11076,7 +11058,7 @@
         <v>363</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -11092,7 +11074,7 @@
     <row r="50" s="1" customFormat="1" ht="35" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
       <c r="B50" s="20" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>30</v>
@@ -11101,7 +11083,7 @@
         <v>363</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -11117,7 +11099,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="19"/>
       <c r="B51" s="20" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>30</v>
@@ -11126,7 +11108,7 @@
         <v>363</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -11142,7 +11124,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="19"/>
       <c r="B52" s="20" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11151,7 +11133,7 @@
         <v>363</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -11167,7 +11149,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
       <c r="B53" s="41" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>30</v>
@@ -11176,10 +11158,10 @@
         <v>493</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -11194,7 +11176,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="19"/>
       <c r="B54" s="41" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>5</v>
@@ -11203,10 +11185,10 @@
         <v>471</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
@@ -11221,7 +11203,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="19"/>
       <c r="B55" s="41" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>5</v>
@@ -11230,10 +11212,10 @@
         <v>49</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -11247,10 +11229,10 @@
     </row>
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11259,7 +11241,7 @@
         <v>253</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -11275,7 +11257,7 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
       <c r="B57" s="20" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
@@ -11284,10 +11266,10 @@
         <v>493</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -11302,7 +11284,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="19"/>
       <c r="B58" s="20" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>30</v>
@@ -11311,7 +11293,7 @@
         <v>363</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
@@ -11326,10 +11308,10 @@
     </row>
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="19" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>30</v>
@@ -11354,9 +11336,7 @@
       <c r="O59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="49" customHeight="1" spans="1:15">
-      <c r="A60" s="37" t="s">
-        <v>849</v>
-      </c>
+      <c r="A60" s="37"/>
       <c r="B60" s="30" t="s">
         <v>763</v>
       </c>
@@ -11382,10 +11362,10 @@
     </row>
     <row r="61" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A61" s="42" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>30</v>
@@ -11394,10 +11374,10 @@
         <v>483</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -11412,7 +11392,7 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="19"/>
       <c r="B62" s="20" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>5</v>
@@ -11421,10 +11401,10 @@
         <v>471</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -11446,10 +11426,10 @@
         <v>465</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -11471,10 +11451,10 @@
         <v>49</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -11489,7 +11469,7 @@
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
       <c r="B65" s="20" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>20</v>
@@ -11498,7 +11478,7 @@
         <v>302</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F65" s="43" t="s">
         <v>803</v>
@@ -11516,7 +11496,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
       <c r="B66" s="20" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11525,10 +11505,10 @@
         <v>493</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -11543,7 +11523,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>5</v>
@@ -11552,10 +11532,10 @@
         <v>49</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -11570,7 +11550,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="19"/>
       <c r="B68" s="20" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
@@ -11579,7 +11559,7 @@
         <v>363</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
@@ -11594,7 +11574,7 @@
     <row r="69" s="1" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A69" s="19"/>
       <c r="B69" s="20" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>5</v>
@@ -11603,14 +11583,14 @@
         <v>536</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="23"/>
@@ -11621,7 +11601,7 @@
     <row r="70" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="19"/>
       <c r="B70" s="20" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>30</v>
@@ -11630,10 +11610,10 @@
         <v>493</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -11648,7 +11628,7 @@
     <row r="71" s="1" customFormat="1" ht="33" customHeight="1" spans="1:15">
       <c r="A71" s="19"/>
       <c r="B71" s="20" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>5</v>
@@ -11657,10 +11637,10 @@
         <v>49</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -11675,7 +11655,7 @@
     <row r="72" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="19"/>
       <c r="B72" s="20" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>30</v>
@@ -11684,7 +11664,7 @@
         <v>707</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="F72" s="27" t="s">
         <v>789</v>
@@ -11702,7 +11682,7 @@
     <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="19"/>
       <c r="B73" s="20" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>30</v>
@@ -11711,7 +11691,7 @@
         <v>363</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
@@ -11734,10 +11714,10 @@
         <v>493</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -11752,7 +11732,7 @@
     <row r="75" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="19"/>
       <c r="B75" s="41" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C75" s="32" t="s">
         <v>5</v>
@@ -11761,10 +11741,10 @@
         <v>471</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -11779,7 +11759,7 @@
     <row r="76" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="19"/>
       <c r="B76" s="41" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>5</v>
@@ -11788,10 +11768,10 @@
         <v>49</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -11805,10 +11785,10 @@
     </row>
     <row r="77" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="57" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C77" s="59" t="s">
         <v>30</v>
@@ -11817,7 +11797,7 @@
         <v>363</v>
       </c>
       <c r="E77" s="60" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
